--- a/src/Section Properties.xlsx
+++ b/src/Section Properties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\School\WSU\Semester 5\Flight Structures\FINAL PROJECT\Code and Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A174FBB-F986-459A-BE7A-DABE5011DC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AAF9D0-27AA-4C32-B089-8F3DB50719DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26460" yWindow="-228" windowWidth="30720" windowHeight="16680" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="16680" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Name of element</t>
   </si>
@@ -141,16 +141,88 @@
     <t>Ai(z'i-zbar)^2</t>
   </si>
   <si>
-    <t>Ai*(y'i-ybar)*(z'i-zbar)</t>
-  </si>
-  <si>
     <t>I~</t>
   </si>
   <si>
-    <t>=add data/update formula</t>
-  </si>
-  <si>
     <t>WARNING: DO NOT CHANGE THE LOCATION OF VALUES IN THIS SHEET, LOCATIONS ARE HARD CODED IN THE MATLAB CODE.</t>
+  </si>
+  <si>
+    <t>Ei (ksi)</t>
+  </si>
+  <si>
+    <t>Ei/ER</t>
+  </si>
+  <si>
+    <t>ER (ksi)</t>
+  </si>
+  <si>
+    <t>(Ei/ER)Ai</t>
+  </si>
+  <si>
+    <t>Ai(y'i-ybar)(z'i-zbar)</t>
+  </si>
+  <si>
+    <t>Ai*(y'i)</t>
+  </si>
+  <si>
+    <t>Ai*(z'i)</t>
+  </si>
+  <si>
+    <t>ybar*</t>
+  </si>
+  <si>
+    <t>zbar*</t>
+  </si>
+  <si>
+    <t>Iyy*</t>
+  </si>
+  <si>
+    <t>Izz*</t>
+  </si>
+  <si>
+    <t>Iyz*</t>
+  </si>
+  <si>
+    <t>I~*</t>
+  </si>
+  <si>
+    <t>y'i-ybar*</t>
+  </si>
+  <si>
+    <t>Ai(y'i-ybar*)^2</t>
+  </si>
+  <si>
+    <t>Ai(z'i-zbar*)^2</t>
+  </si>
+  <si>
+    <t>Ai(y'i-ybar*)(z'i-zbar*)</t>
+  </si>
+  <si>
+    <t>=add data</t>
+  </si>
+  <si>
+    <t>=update formula to add stringers in sum</t>
+  </si>
+  <si>
+    <t>z'i-zbar*</t>
+  </si>
+  <si>
+    <t>Ult Tens Strength (ksi)</t>
+  </si>
+  <si>
+    <t>Ult Comp Strength (ksi)</t>
+  </si>
+  <si>
+    <t>Poisson's ratio</t>
+  </si>
+  <si>
+    <t>Specific Weight (lbf/ft^3)</t>
+  </si>
+  <si>
+    <t>Not Avaliable</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
   </si>
 </sst>
 </file>
@@ -172,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +263,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -204,15 +282,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3812326-F393-4F18-B450-8E22F40B5680}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,9 +746,15 @@
     <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,10 +798,52 @@
         <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -756,11 +882,11 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>D2-$Q$3</f>
+        <f>D2-$AE$3</f>
         <v>0.56979635487546165</v>
       </c>
       <c r="L2">
-        <f>E2-$R$3</f>
+        <f>E2-$AF$3</f>
         <v>-0.31166592625587453</v>
       </c>
       <c r="M2">
@@ -775,26 +901,77 @@
         <f>C2*K2*L2</f>
         <v>-4.1621744231128535E-2</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="P2">
+        <v>255</v>
+      </c>
+      <c r="Q2">
+        <f>P2/$AE$7</f>
+        <v>0.1275</v>
+      </c>
+      <c r="R2">
+        <f>Q2*C2</f>
+        <v>2.9882812500000001E-2</v>
+      </c>
+      <c r="S2">
+        <f>R2*D2</f>
+        <v>9.3383789062500004E-4</v>
+      </c>
+      <c r="T2">
+        <f>R2*E2</f>
+        <v>-5.60302734375E-2</v>
+      </c>
+      <c r="U2">
+        <f>D2-$AE$5</f>
+        <v>0.55631911859611249</v>
+      </c>
+      <c r="V2">
+        <f>E2-$AF$5</f>
+        <v>-0.21897636946224064</v>
+      </c>
+      <c r="W2">
+        <f>C2*U2^2</f>
+        <v>7.253694415208331E-2</v>
+      </c>
+      <c r="X2">
+        <f>C2*V2^2</f>
+        <v>1.1238433683483684E-2</v>
+      </c>
+      <c r="Y2">
+        <f>C2*U2*V2</f>
+        <v>-2.8551736137330561E-2</v>
+      </c>
+      <c r="Z2">
+        <v>1.47</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
+      <c r="AB2">
+        <v>0.35</v>
+      </c>
+      <c r="AC2">
+        <v>5.6</v>
+      </c>
+      <c r="AE2" t="s">
         <v>30</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AF2" t="s">
         <v>31</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AG2" t="s">
         <v>5</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AH2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AI2" t="s">
         <v>7</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
+      <c r="AJ2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -833,11 +1010,11 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f>D3-$Q$3</f>
+        <f>D3-$AE$3</f>
         <v>-0.46145364512453835</v>
       </c>
       <c r="L3">
-        <f>E3-$R$3</f>
+        <f>E3-$AF$3</f>
         <v>-0.31166592625587453</v>
       </c>
       <c r="M3">
@@ -852,32 +1029,83 @@
         <f t="shared" ref="O3:O15" si="4">C3*K3*L3</f>
         <v>3.4885580384644552E-2</v>
       </c>
+      <c r="P3">
+        <v>255</v>
+      </c>
       <c r="Q3">
+        <f>P3/$AE$7</f>
+        <v>0.1275</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R15" si="5">Q3*C3</f>
+        <v>3.0927066777705518E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S15" si="6">R3*D3</f>
+        <v>-3.0927066777705518E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T15" si="7">R3*E3</f>
+        <v>-5.7988250208197846E-2</v>
+      </c>
+      <c r="U3">
+        <f>D3-$AE$5</f>
+        <v>-0.47493088140388751</v>
+      </c>
+      <c r="V3">
+        <f>E3-$AF$5</f>
+        <v>-0.21897636946224064</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W15" si="8">C3*U3^2</f>
+        <v>5.4712853614152887E-2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X15" si="9">C3*V3^2</f>
+        <v>1.163116052098225E-2</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y15" si="10">C3*U3*V3</f>
+        <v>2.5226454030386754E-2</v>
+      </c>
+      <c r="Z3">
+        <v>1.47</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>0.35</v>
+      </c>
+      <c r="AC3">
+        <v>5.6</v>
+      </c>
+      <c r="AE3">
         <f>F16/C16</f>
         <v>-0.53854635487546165</v>
       </c>
-      <c r="R3">
+      <c r="AF3">
         <f>G16/C16</f>
         <v>-1.5633340737441255</v>
       </c>
-      <c r="S3">
+      <c r="AG3">
         <f>H16+N16</f>
-        <v>1.3303343231691338</v>
-      </c>
-      <c r="T3">
+        <v>1.3301308726482999</v>
+      </c>
+      <c r="AH3">
         <f>I16+M16</f>
-        <v>0.16643134242473706</v>
-      </c>
-      <c r="U3">
+        <v>0.16622789190390372</v>
+      </c>
+      <c r="AI3">
         <f>J16+O16</f>
         <v>-0.10454809147352823</v>
       </c>
-      <c r="V3">
-        <f>(S3*T3)-U3^2</f>
-        <v>0.2104790238479857</v>
+      <c r="AJ3">
+        <f>(AG3*AH3)-AI3^2</f>
+        <v>0.21017454748586947</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -916,11 +1144,11 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>D4-$Q$3</f>
+        <f>D4-$AE$3</f>
         <v>-0.21145364512453835</v>
       </c>
       <c r="L4">
-        <f>E4-$R$3</f>
+        <f>E4-$AF$3</f>
         <v>1.5008340737441255</v>
       </c>
       <c r="M4">
@@ -935,8 +1163,77 @@
         <f t="shared" si="4"/>
         <v>-5.9504406678807284E-2</v>
       </c>
+      <c r="P4">
+        <v>155</v>
+      </c>
+      <c r="Q4">
+        <f>P4/$AE$7</f>
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="5"/>
+        <v>1.4531249999999999E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="6"/>
+        <v>-1.08984375E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="7"/>
+        <v>-9.0820312499999994E-4</v>
+      </c>
+      <c r="U4">
+        <f>D4-$AE$5</f>
+        <v>-0.22493088140388751</v>
+      </c>
+      <c r="V4">
+        <f>E4-$AF$5</f>
+        <v>1.5935236305377594</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="8"/>
+        <v>9.4863565142118203E-3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="9"/>
+        <v>0.4761220427029203</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="10"/>
+        <v>-6.7206126516521442E-2</v>
+      </c>
+      <c r="Z4">
+        <v>0.63</v>
+      </c>
+      <c r="AA4">
+        <v>1.46</v>
+      </c>
+      <c r="AB4">
+        <v>0.35</v>
+      </c>
+      <c r="AC4">
+        <v>5.3</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -975,11 +1272,11 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f>D5-$Q$3</f>
+        <f>D5-$AE$3</f>
         <v>0.28854635487546165</v>
       </c>
       <c r="L5">
-        <f>E5-$R$3</f>
+        <f>E5-$AF$3</f>
         <v>-2.1241659262558743</v>
       </c>
       <c r="M5">
@@ -994,8 +1291,83 @@
         <f t="shared" si="4"/>
         <v>-3.8307520948236952E-2</v>
       </c>
+      <c r="P5">
+        <v>155</v>
+      </c>
+      <c r="Q5">
+        <f>P5/$AE$7</f>
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>4.84375E-3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>-1.2109375E-3</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>-1.7861328124999999E-2</v>
+      </c>
+      <c r="U5">
+        <f>D5-$AE$5</f>
+        <v>0.27506911859611249</v>
+      </c>
+      <c r="V5">
+        <f>E5-$AF$5</f>
+        <v>-2.0314763694622409</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="8"/>
+        <v>4.7289387503276379E-3</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="9"/>
+        <v>0.25793101498021792</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="10"/>
+        <v>-3.4924775899800573E-2</v>
+      </c>
+      <c r="Z5">
+        <v>0.63</v>
+      </c>
+      <c r="AA5">
+        <v>1.46</v>
+      </c>
+      <c r="AB5">
+        <v>0.35</v>
+      </c>
+      <c r="AC5">
+        <v>5.3</v>
+      </c>
+      <c r="AE5">
+        <f>S16/R16</f>
+        <v>-0.52506911859611249</v>
+      </c>
+      <c r="AF5">
+        <f>T16/R16</f>
+        <v>-1.6560236305377594</v>
+      </c>
+      <c r="AG5">
+        <f>H16+X16</f>
+        <v>1.3363762734532507</v>
+      </c>
+      <c r="AH5">
+        <f>I16+W16</f>
+        <v>0.16635993034510801</v>
+      </c>
+      <c r="AI5">
+        <f>J16+Y16</f>
+        <v>-0.10545618452326581</v>
+      </c>
+      <c r="AJ5">
+        <f>(AG5*AH5)-AI5^2</f>
+        <v>0.21119845691233272</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1033,11 +1405,11 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f>D6-$Q$3</f>
+        <f>D6-$AE$3</f>
         <v>0.66354635487546165</v>
       </c>
       <c r="L6" t="e">
-        <f>E6-$R$3</f>
+        <f>E6-$AF$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M6">
@@ -1052,8 +1424,62 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
+      <c r="P6">
+        <v>1130</v>
+      </c>
+      <c r="Q6">
+        <f>P6/$AE$7</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T6" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U6">
+        <f>D6-$AE$5</f>
+        <v>0.65006911859611249</v>
+      </c>
+      <c r="V6" t="e">
+        <f>E6-$AF$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="8"/>
+        <v>6.602966546130103E-3</v>
+      </c>
+      <c r="X6" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y6" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z6">
+        <v>7.8</v>
+      </c>
+      <c r="AA6">
+        <v>7.8</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1061,11 +1487,11 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C15" si="5">0.125*0.125</f>
+        <f t="shared" ref="C7:C15" si="11">0.125*0.125</f>
         <v>1.5625E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="6">(1/16)+(1/8)/2</f>
+        <f t="shared" ref="D7:D10" si="12">(1/16)+(1/8)/2</f>
         <v>0.125</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1080,22 +1506,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:I15" si="7">((1/8)^4)/12</f>
+        <f t="shared" ref="H7:I15" si="13">((1/8)^4)/12</f>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <f>D7-$Q$3</f>
+        <f>D7-$AE$3</f>
         <v>0.66354635487546165</v>
       </c>
       <c r="L7" t="e">
-        <f>E7-$R$3</f>
+        <f>E7-$AF$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M7">
@@ -1110,8 +1536,62 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
+      <c r="P7">
+        <v>1130</v>
+      </c>
+      <c r="Q7">
+        <f>P7/$AE$7</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T7" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U7">
+        <f>D7-$AE$5</f>
+        <v>0.65006911859611249</v>
+      </c>
+      <c r="V7" t="e">
+        <f>E7-$AF$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>6.602966546130103E-3</v>
+      </c>
+      <c r="X7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y7" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z7">
+        <v>7.8</v>
+      </c>
+      <c r="AA7">
+        <v>7.8</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE7">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1119,11 +1599,11 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.125</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1138,22 +1618,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="H8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <f>D8-$Q$3</f>
+        <f>D8-$AE$3</f>
         <v>0.66354635487546165</v>
       </c>
       <c r="L8" t="e">
-        <f>E8-$R$3</f>
+        <f>E8-$AF$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M8">
@@ -1168,8 +1648,59 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
+      <c r="P8">
+        <v>1130</v>
+      </c>
+      <c r="Q8">
+        <f>P8/$AE$7</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T8" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8">
+        <f>D8-$AE$5</f>
+        <v>0.65006911859611249</v>
+      </c>
+      <c r="V8" t="e">
+        <f>E8-$AF$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>6.602966546130103E-3</v>
+      </c>
+      <c r="X8" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y8" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z8">
+        <v>7.8</v>
+      </c>
+      <c r="AA8">
+        <v>7.8</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1177,11 +1708,11 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.125</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1196,22 +1727,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="H9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <f>D9-$Q$3</f>
+        <f>D9-$AE$3</f>
         <v>0.66354635487546165</v>
       </c>
       <c r="L9" t="e">
-        <f>E9-$R$3</f>
+        <f>E9-$AF$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M9">
@@ -1226,8 +1757,59 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
+      <c r="P9">
+        <v>1130</v>
+      </c>
+      <c r="Q9">
+        <f>P9/$AE$7</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T9" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U9">
+        <f>D9-$AE$5</f>
+        <v>0.65006911859611249</v>
+      </c>
+      <c r="V9" t="e">
+        <f>E9-$AF$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>6.602966546130103E-3</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y9" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z9">
+        <v>7.8</v>
+      </c>
+      <c r="AA9">
+        <v>7.8</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1235,11 +1817,11 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.125</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1254,22 +1836,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="H10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <f>D10-$Q$3</f>
+        <f>D10-$AE$3</f>
         <v>0.66354635487546165</v>
       </c>
       <c r="L10" t="e">
-        <f>E10-$R$3</f>
+        <f>E10-$AF$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M10">
@@ -1284,8 +1866,59 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
+      <c r="P10">
+        <v>1130</v>
+      </c>
+      <c r="Q10">
+        <f>P10/$AE$7</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U10">
+        <f>D10-$AE$5</f>
+        <v>0.65006911859611249</v>
+      </c>
+      <c r="V10" t="e">
+        <f>E10-$AF$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>6.602966546130103E-3</v>
+      </c>
+      <c r="X10" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y10" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z10">
+        <v>7.8</v>
+      </c>
+      <c r="AA10">
+        <v>7.8</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1293,7 +1926,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1311,22 +1944,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="H11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="e">
-        <f>D11-$Q$3</f>
+        <f>D11-$AE$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="L11" t="e">
-        <f>E11-$R$3</f>
+        <f>E11-$AF$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M11" t="e">
@@ -1341,8 +1974,59 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
+      <c r="P11">
+        <v>1130</v>
+      </c>
+      <c r="Q11">
+        <f>P11/$AE$7</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U11" t="e">
+        <f>D11-$AE$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V11" t="e">
+        <f>E11-$AF$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W11" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X11" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y11" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z11">
+        <v>7.8</v>
+      </c>
+      <c r="AA11">
+        <v>7.8</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1350,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1368,22 +2052,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="H12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="e">
-        <f>D12-$Q$3</f>
+        <f>D12-$AE$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="L12" t="e">
-        <f>E12-$R$3</f>
+        <f>E12-$AF$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M12" t="e">
@@ -1398,8 +2082,59 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
+      <c r="P12">
+        <v>1130</v>
+      </c>
+      <c r="Q12">
+        <f>P12/$AE$7</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S12" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T12" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U12" t="e">
+        <f>D12-$AE$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V12" t="e">
+        <f>E12-$AF$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X12" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y12" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z12">
+        <v>7.8</v>
+      </c>
+      <c r="AA12">
+        <v>7.8</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1407,7 +2142,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1425,22 +2160,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="H13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="e">
-        <f>D13-$Q$3</f>
+        <f>D13-$AE$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="L13" t="e">
-        <f>E13-$R$3</f>
+        <f>E13-$AF$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M13" t="e">
@@ -1455,8 +2190,59 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
+      <c r="P13">
+        <v>1130</v>
+      </c>
+      <c r="Q13">
+        <f>P13/$AE$7</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S13" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U13" t="e">
+        <f>D13-$AE$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V13" t="e">
+        <f>E13-$AF$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X13" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y13" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z13">
+        <v>7.8</v>
+      </c>
+      <c r="AA13">
+        <v>7.8</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1464,7 +2250,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1482,22 +2268,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="H14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="e">
-        <f>D14-$Q$3</f>
+        <f>D14-$AE$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="L14" t="e">
-        <f>E14-$R$3</f>
+        <f>E14-$AF$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M14" t="e">
@@ -1512,8 +2298,59 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
+      <c r="P14">
+        <v>1130</v>
+      </c>
+      <c r="Q14">
+        <f>P14/$AE$7</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S14" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T14" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U14" t="e">
+        <f>D14-$AE$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V14" t="e">
+        <f>E14-$AF$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W14" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X14" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y14" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z14">
+        <v>7.8</v>
+      </c>
+      <c r="AA14">
+        <v>7.8</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1521,7 +2358,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1539,22 +2376,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="H15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="e">
-        <f>D15-$Q$3</f>
+        <f>D15-$AE$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="L15" t="e">
-        <f>E15-$R$3</f>
+        <f>E15-$AF$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M15" t="e">
@@ -1569,59 +2406,140 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
+      <c r="P15">
+        <v>1130</v>
+      </c>
+      <c r="Q15">
+        <f>P15/$AE$7</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S15" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U15" t="e">
+        <f>D15-$AE$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V15" t="e">
+        <f>E15-$AF$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y15" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z15">
+        <v>7.8</v>
+      </c>
+      <c r="AA15">
+        <v>7.8</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <f>SUM(C2:C5)</f>
         <v>0.72694022962906291</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <f>SUM(F2:F5)</f>
         <v>-0.39149101087906291</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <f>SUM(G2:G5)</f>
         <v>-1.1364504305544929</v>
       </c>
-      <c r="H16">
-        <f>SUM(H2:H15)</f>
-        <v>0.57965707208648032</v>
-      </c>
-      <c r="I16">
-        <f>SUM(I2:I15)</f>
-        <v>2.5098287835165697E-2</v>
-      </c>
-      <c r="J16">
-        <f>SUM(J2:J15)</f>
+      <c r="H16" s="3">
+        <f>SUM(H2:H5)</f>
+        <v>0.57945362156564661</v>
+      </c>
+      <c r="I16" s="3">
+        <f>SUM(I2:I5)</f>
+        <v>2.4894837314332376E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <f>SUM(J2:J5)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="3">
         <f>SUM(M2:M5)</f>
         <v>0.14133305458957135</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="3">
         <f>SUM(N2:N5)</f>
         <v>0.75067725108265337</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="3">
         <f>SUM(O2:O5)</f>
         <v>-0.10454809147352823</v>
+      </c>
+      <c r="R16" s="3">
+        <f>SUM(R2:R5)</f>
+        <v>8.0184879277705512E-2</v>
+      </c>
+      <c r="S16" s="3">
+        <f>SUM(S2:S5)</f>
+        <v>-4.2102603887080516E-2</v>
+      </c>
+      <c r="T16" s="3">
+        <f>SUM(T2:T5)</f>
+        <v>-0.13278805489569784</v>
+      </c>
+      <c r="W16" s="3">
+        <f>SUM(W2:W5)</f>
+        <v>0.14146509303077565</v>
+      </c>
+      <c r="X16" s="3">
+        <f>SUM(X2:X5)</f>
+        <v>0.75692265188760421</v>
+      </c>
+      <c r="Y16" s="3">
+        <f>SUM(Y2:Y5)</f>
+        <v>-0.10545618452326581</v>
       </c>
     </row>
     <row r="21" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q21" s="1"/>
-      <c r="R21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="R21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1646,9 +2564,8 @@
       <c r="V25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="Q23:V25"/>
-    <mergeCell ref="R21:T21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Section Properties.xlsx
+++ b/src/Section Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AAF9D0-27AA-4C32-B089-8F3DB50719DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08D8A9C-AD60-4434-981F-D609545D70FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="16680" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
+    <workbookView xWindow="5616" yWindow="2868" windowWidth="30720" windowHeight="16680" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>Name of element</t>
   </si>
@@ -223,6 +223,42 @@
   </si>
   <si>
     <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Shear Modulus (ksi)</t>
+  </si>
+  <si>
+    <t>LE Top Skin y</t>
+  </si>
+  <si>
+    <t>TE Top Skin y</t>
+  </si>
+  <si>
+    <t>LE Bottom Skin y</t>
+  </si>
+  <si>
+    <t>TE Bottom Skin y</t>
+  </si>
+  <si>
+    <t>LE Top Skin z</t>
+  </si>
+  <si>
+    <t>LE Bottom Skin z</t>
+  </si>
+  <si>
+    <t>TE Top Skin z</t>
+  </si>
+  <si>
+    <t>TE Bottom Skin z</t>
+  </si>
+  <si>
+    <t>Volume (in^3)</t>
+  </si>
+  <si>
+    <t>Rib x Location (in)</t>
+  </si>
+  <si>
+    <t>^ need to subtract more than 1/16, which is an estimate</t>
   </si>
 </sst>
 </file>
@@ -285,12 +321,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,6 +448,66 @@
         <a:xfrm>
           <a:off x="5829300" y="3055621"/>
           <a:ext cx="5509260" cy="4126084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="70000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>457675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>53695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172DF825-8A7B-44BE-93A0-9E653997D04B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26883360" y="3086100"/>
+          <a:ext cx="5486875" cy="4099915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -730,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3812326-F393-4F18-B450-8E22F40B5680}">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,10 +847,16 @@
     <col min="25" max="26" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.77734375" customWidth="1"/>
+    <col min="30" max="30" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -840,10 +942,19 @@
         <v>59</v>
       </c>
       <c r="AC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s">
         <v>60</v>
       </c>
+      <c r="AE1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -882,11 +993,11 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>D2-$AE$3</f>
+        <f>D2-$AH$3</f>
         <v>0.56979635487546165</v>
       </c>
       <c r="L2">
-        <f>E2-$AF$3</f>
+        <f>E2-$AI$3</f>
         <v>-0.31166592625587453</v>
       </c>
       <c r="M2">
@@ -905,7 +1016,7 @@
         <v>255</v>
       </c>
       <c r="Q2">
-        <f>P2/$AE$7</f>
+        <f>P2/$AH$7</f>
         <v>0.1275</v>
       </c>
       <c r="R2">
@@ -921,11 +1032,11 @@
         <v>-5.60302734375E-2</v>
       </c>
       <c r="U2">
-        <f>D2-$AE$5</f>
+        <f>D2-$AH$5</f>
         <v>0.55631911859611249</v>
       </c>
       <c r="V2">
-        <f>E2-$AF$5</f>
+        <f>E2-$AI$5</f>
         <v>-0.21897636946224064</v>
       </c>
       <c r="W2">
@@ -950,28 +1061,37 @@
         <v>0.35</v>
       </c>
       <c r="AC2">
+        <v>36</v>
+      </c>
+      <c r="AD2">
         <v>5.6</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1010,11 +1130,11 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f>D3-$AE$3</f>
+        <f>D3-$AH$3</f>
         <v>-0.46145364512453835</v>
       </c>
       <c r="L3">
-        <f>E3-$AF$3</f>
+        <f>E3-$AI$3</f>
         <v>-0.31166592625587453</v>
       </c>
       <c r="M3">
@@ -1033,7 +1153,7 @@
         <v>255</v>
       </c>
       <c r="Q3">
-        <f>P3/$AE$7</f>
+        <f>P3/$AH$7</f>
         <v>0.1275</v>
       </c>
       <c r="R3">
@@ -1049,11 +1169,11 @@
         <v>-5.7988250208197846E-2</v>
       </c>
       <c r="U3">
-        <f>D3-$AE$5</f>
+        <f>D3-$AH$5</f>
         <v>-0.47493088140388751</v>
       </c>
       <c r="V3">
-        <f>E3-$AF$5</f>
+        <f>E3-$AI$5</f>
         <v>-0.21897636946224064</v>
       </c>
       <c r="W3">
@@ -1078,34 +1198,43 @@
         <v>0.35</v>
       </c>
       <c r="AC3">
+        <v>36</v>
+      </c>
+      <c r="AD3">
         <v>5.6</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3">
         <f>F16/C16</f>
         <v>-0.53854635487546165</v>
       </c>
-      <c r="AF3">
+      <c r="AI3">
         <f>G16/C16</f>
         <v>-1.5633340737441255</v>
       </c>
-      <c r="AG3">
+      <c r="AJ3">
         <f>H16+N16</f>
         <v>1.3301308726482999</v>
       </c>
-      <c r="AH3">
+      <c r="AK3">
         <f>I16+M16</f>
         <v>0.16622789190390372</v>
       </c>
-      <c r="AI3">
+      <c r="AL3">
         <f>J16+O16</f>
         <v>-0.10454809147352823</v>
       </c>
-      <c r="AJ3">
-        <f>(AG3*AH3)-AI3^2</f>
+      <c r="AM3">
+        <f>(AJ3*AK3)-AL3^2</f>
         <v>0.21017454748586947</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1144,11 +1273,11 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>D4-$AE$3</f>
+        <f>D4-$AH$3</f>
         <v>-0.21145364512453835</v>
       </c>
       <c r="L4">
-        <f>E4-$AF$3</f>
+        <f>E4-$AI$3</f>
         <v>1.5008340737441255</v>
       </c>
       <c r="M4">
@@ -1167,7 +1296,7 @@
         <v>155</v>
       </c>
       <c r="Q4">
-        <f>P4/$AE$7</f>
+        <f>P4/$AH$7</f>
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="R4">
@@ -1183,11 +1312,11 @@
         <v>-9.0820312499999994E-4</v>
       </c>
       <c r="U4">
-        <f>D4-$AE$5</f>
+        <f>D4-$AH$5</f>
         <v>-0.22493088140388751</v>
       </c>
       <c r="V4">
-        <f>E4-$AF$5</f>
+        <f>E4-$AI$5</f>
         <v>1.5935236305377594</v>
       </c>
       <c r="W4">
@@ -1212,28 +1341,37 @@
         <v>0.35</v>
       </c>
       <c r="AC4">
+        <v>36</v>
+      </c>
+      <c r="AD4">
         <v>5.3</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH4" t="s">
         <v>44</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AI4" t="s">
         <v>45</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
         <v>46</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AK4" t="s">
         <v>47</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>48</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1272,11 +1410,11 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f>D5-$AE$3</f>
+        <f>D5-$AH$3</f>
         <v>0.28854635487546165</v>
       </c>
       <c r="L5">
-        <f>E5-$AF$3</f>
+        <f>E5-$AI$3</f>
         <v>-2.1241659262558743</v>
       </c>
       <c r="M5">
@@ -1295,7 +1433,7 @@
         <v>155</v>
       </c>
       <c r="Q5">
-        <f>P5/$AE$7</f>
+        <f>P5/$AH$7</f>
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="R5">
@@ -1311,11 +1449,11 @@
         <v>-1.7861328124999999E-2</v>
       </c>
       <c r="U5">
-        <f>D5-$AE$5</f>
+        <f>D5-$AH$5</f>
         <v>0.27506911859611249</v>
       </c>
       <c r="V5">
-        <f>E5-$AF$5</f>
+        <f>E5-$AI$5</f>
         <v>-2.0314763694622409</v>
       </c>
       <c r="W5">
@@ -1340,34 +1478,43 @@
         <v>0.35</v>
       </c>
       <c r="AC5">
+        <v>36</v>
+      </c>
+      <c r="AD5">
         <v>5.3</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH5">
         <f>S16/R16</f>
         <v>-0.52506911859611249</v>
       </c>
-      <c r="AF5">
+      <c r="AI5">
         <f>T16/R16</f>
         <v>-1.6560236305377594</v>
       </c>
-      <c r="AG5">
+      <c r="AJ5">
         <f>H16+X16</f>
         <v>1.3363762734532507</v>
       </c>
-      <c r="AH5">
+      <c r="AK5">
         <f>I16+W16</f>
         <v>0.16635993034510801</v>
       </c>
-      <c r="AI5">
+      <c r="AL5">
         <f>J16+Y16</f>
         <v>-0.10545618452326581</v>
       </c>
-      <c r="AJ5">
-        <f>(AG5*AH5)-AI5^2</f>
+      <c r="AM5">
+        <f>(AJ5*AK5)-AL5^2</f>
         <v>0.21119845691233272</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1405,11 +1552,11 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f>D6-$AE$3</f>
+        <f>D6-$AH$3</f>
         <v>0.66354635487546165</v>
       </c>
       <c r="L6" t="e">
-        <f>E6-$AF$3</f>
+        <f>E6-$AI$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M6">
@@ -1428,7 +1575,7 @@
         <v>1130</v>
       </c>
       <c r="Q6">
-        <f>P6/$AE$7</f>
+        <f>P6/$AH$7</f>
         <v>0.56499999999999995</v>
       </c>
       <c r="R6">
@@ -1444,11 +1591,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="U6">
-        <f>D6-$AE$5</f>
+        <f>D6-$AH$5</f>
         <v>0.65006911859611249</v>
       </c>
       <c r="V6" t="e">
-        <f>E6-$AF$5</f>
+        <f>E6-$AI$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="W6">
@@ -1472,14 +1619,23 @@
       <c r="AB6" t="s">
         <v>62</v>
       </c>
-      <c r="AC6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AC6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1517,11 +1673,11 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f>D7-$AE$3</f>
+        <f>D7-$AH$3</f>
         <v>0.66354635487546165</v>
       </c>
       <c r="L7" t="e">
-        <f>E7-$AF$3</f>
+        <f>E7-$AI$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M7">
@@ -1540,7 +1696,7 @@
         <v>1130</v>
       </c>
       <c r="Q7">
-        <f>P7/$AE$7</f>
+        <f>P7/$AH$7</f>
         <v>0.56499999999999995</v>
       </c>
       <c r="R7">
@@ -1556,11 +1712,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="U7">
-        <f>D7-$AE$5</f>
+        <f>D7-$AH$5</f>
         <v>0.65006911859611249</v>
       </c>
       <c r="V7" t="e">
-        <f>E7-$AF$5</f>
+        <f>E7-$AI$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="W7">
@@ -1584,14 +1740,23 @@
       <c r="AB7" t="s">
         <v>62</v>
       </c>
-      <c r="AC7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE7">
+      <c r="AC7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH7">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1629,11 +1794,11 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f>D8-$AE$3</f>
+        <f>D8-$AH$3</f>
         <v>0.66354635487546165</v>
       </c>
       <c r="L8" t="e">
-        <f>E8-$AF$3</f>
+        <f>E8-$AI$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M8">
@@ -1652,7 +1817,7 @@
         <v>1130</v>
       </c>
       <c r="Q8">
-        <f>P8/$AE$7</f>
+        <f>P8/$AH$7</f>
         <v>0.56499999999999995</v>
       </c>
       <c r="R8">
@@ -1668,11 +1833,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="U8">
-        <f>D8-$AE$5</f>
+        <f>D8-$AH$5</f>
         <v>0.65006911859611249</v>
       </c>
       <c r="V8" t="e">
-        <f>E8-$AF$5</f>
+        <f>E8-$AI$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="W8">
@@ -1696,11 +1861,20 @@
       <c r="AB8" t="s">
         <v>62</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF8" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1738,11 +1912,11 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <f>D9-$AE$3</f>
+        <f>D9-$AH$3</f>
         <v>0.66354635487546165</v>
       </c>
       <c r="L9" t="e">
-        <f>E9-$AF$3</f>
+        <f>E9-$AI$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M9">
@@ -1761,7 +1935,7 @@
         <v>1130</v>
       </c>
       <c r="Q9">
-        <f>P9/$AE$7</f>
+        <f>P9/$AH$7</f>
         <v>0.56499999999999995</v>
       </c>
       <c r="R9">
@@ -1777,11 +1951,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="U9">
-        <f>D9-$AE$5</f>
+        <f>D9-$AH$5</f>
         <v>0.65006911859611249</v>
       </c>
       <c r="V9" t="e">
-        <f>E9-$AF$5</f>
+        <f>E9-$AI$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="W9">
@@ -1805,11 +1979,32 @@
       <c r="AB9" t="s">
         <v>62</v>
       </c>
-      <c r="AC9" t="s">
-        <v>61</v>
+      <c r="AC9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1847,11 +2042,11 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f>D10-$AE$3</f>
+        <f>D10-$AH$3</f>
         <v>0.66354635487546165</v>
       </c>
       <c r="L10" t="e">
-        <f>E10-$AF$3</f>
+        <f>E10-$AI$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M10">
@@ -1870,7 +2065,7 @@
         <v>1130</v>
       </c>
       <c r="Q10">
-        <f>P10/$AE$7</f>
+        <f>P10/$AH$7</f>
         <v>0.56499999999999995</v>
       </c>
       <c r="R10">
@@ -1886,11 +2081,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="U10">
-        <f>D10-$AE$5</f>
+        <f>D10-$AH$5</f>
         <v>0.65006911859611249</v>
       </c>
       <c r="V10" t="e">
-        <f>E10-$AF$5</f>
+        <f>E10-$AI$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="W10">
@@ -1914,11 +2109,34 @@
       <c r="AB10" t="s">
         <v>62</v>
       </c>
-      <c r="AC10" t="s">
-        <v>61</v>
+      <c r="AC10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH10">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f>-1.5-(1/16)</f>
+        <v>-1.5625</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1955,11 +2173,11 @@
         <v>0</v>
       </c>
       <c r="K11" t="e">
-        <f>D11-$AE$3</f>
+        <f>D11-$AH$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="L11" t="e">
-        <f>E11-$AF$3</f>
+        <f>E11-$AI$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M11" t="e">
@@ -1978,7 +2196,7 @@
         <v>1130</v>
       </c>
       <c r="Q11">
-        <f>P11/$AE$7</f>
+        <f>P11/$AH$7</f>
         <v>0.56499999999999995</v>
       </c>
       <c r="R11">
@@ -1994,11 +2212,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="U11" t="e">
-        <f>D11-$AE$5</f>
+        <f>D11-$AH$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="V11" t="e">
-        <f>E11-$AF$5</f>
+        <f>E11-$AI$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="W11" t="e">
@@ -2022,11 +2240,32 @@
       <c r="AB11" t="s">
         <v>62</v>
       </c>
-      <c r="AC11" t="s">
-        <v>61</v>
+      <c r="AC11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2063,11 +2302,11 @@
         <v>0</v>
       </c>
       <c r="K12" t="e">
-        <f>D12-$AE$3</f>
+        <f>D12-$AH$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="L12" t="e">
-        <f>E12-$AF$3</f>
+        <f>E12-$AI$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M12" t="e">
@@ -2086,7 +2325,7 @@
         <v>1130</v>
       </c>
       <c r="Q12">
-        <f>P12/$AE$7</f>
+        <f>P12/$AH$7</f>
         <v>0.56499999999999995</v>
       </c>
       <c r="R12">
@@ -2102,11 +2341,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="U12" t="e">
-        <f>D12-$AE$5</f>
+        <f>D12-$AH$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="V12" t="e">
-        <f>E12-$AF$5</f>
+        <f>E12-$AI$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="W12" t="e">
@@ -2130,11 +2369,34 @@
       <c r="AB12" t="s">
         <v>62</v>
       </c>
-      <c r="AC12" t="s">
-        <v>61</v>
+      <c r="AC12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH12">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AI12">
+        <v>-3.75</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f>-0.5-(1/16)</f>
+        <v>-0.5625</v>
+      </c>
+      <c r="AK12">
+        <v>-3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2171,11 +2433,11 @@
         <v>0</v>
       </c>
       <c r="K13" t="e">
-        <f>D13-$AE$3</f>
+        <f>D13-$AH$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="L13" t="e">
-        <f>E13-$AF$3</f>
+        <f>E13-$AI$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M13" t="e">
@@ -2194,7 +2456,7 @@
         <v>1130</v>
       </c>
       <c r="Q13">
-        <f>P13/$AE$7</f>
+        <f>P13/$AH$7</f>
         <v>0.56499999999999995</v>
       </c>
       <c r="R13">
@@ -2210,11 +2472,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="U13" t="e">
-        <f>D13-$AE$5</f>
+        <f>D13-$AH$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="V13" t="e">
-        <f>E13-$AF$5</f>
+        <f>E13-$AI$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="W13" t="e">
@@ -2238,11 +2500,20 @@
       <c r="AB13" t="s">
         <v>62</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AC13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF13" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2279,11 +2550,11 @@
         <v>0</v>
       </c>
       <c r="K14" t="e">
-        <f>D14-$AE$3</f>
+        <f>D14-$AH$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="L14" t="e">
-        <f>E14-$AF$3</f>
+        <f>E14-$AI$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M14" t="e">
@@ -2302,7 +2573,7 @@
         <v>1130</v>
       </c>
       <c r="Q14">
-        <f>P14/$AE$7</f>
+        <f>P14/$AH$7</f>
         <v>0.56499999999999995</v>
       </c>
       <c r="R14">
@@ -2318,11 +2589,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="U14" t="e">
-        <f>D14-$AE$5</f>
+        <f>D14-$AH$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="V14" t="e">
-        <f>E14-$AF$5</f>
+        <f>E14-$AI$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="W14" t="e">
@@ -2346,11 +2617,23 @@
       <c r="AB14" t="s">
         <v>62</v>
       </c>
-      <c r="AC14" t="s">
-        <v>61</v>
+      <c r="AC14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2387,11 +2670,11 @@
         <v>0</v>
       </c>
       <c r="K15" t="e">
-        <f>D15-$AE$3</f>
+        <f>D15-$AH$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="L15" t="e">
-        <f>E15-$AF$3</f>
+        <f>E15-$AI$3</f>
         <v>#VALUE!</v>
       </c>
       <c r="M15" t="e">
@@ -2410,7 +2693,7 @@
         <v>1130</v>
       </c>
       <c r="Q15">
-        <f>P15/$AE$7</f>
+        <f>P15/$AH$7</f>
         <v>0.56499999999999995</v>
       </c>
       <c r="R15">
@@ -2426,11 +2709,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="U15" t="e">
-        <f>D15-$AE$5</f>
+        <f>D15-$AH$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="V15" t="e">
-        <f>E15-$AF$5</f>
+        <f>E15-$AI$5</f>
         <v>#VALUE!</v>
       </c>
       <c r="W15" t="e">
@@ -2454,114 +2737,123 @@
       <c r="AB15" t="s">
         <v>62</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AC15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF15" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f>SUM(C2:C5)</f>
         <v>0.72694022962906291</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f>SUM(F2:F5)</f>
         <v>-0.39149101087906291</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f>SUM(G2:G5)</f>
         <v>-1.1364504305544929</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f>SUM(H2:H5)</f>
         <v>0.57945362156564661</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <f>SUM(I2:I5)</f>
         <v>2.4894837314332376E-2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <f>SUM(J2:J5)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <f>SUM(M2:M5)</f>
         <v>0.14133305458957135</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <f>SUM(N2:N5)</f>
         <v>0.75067725108265337</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <f>SUM(O2:O5)</f>
         <v>-0.10454809147352823</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="2">
         <f>SUM(R2:R5)</f>
         <v>8.0184879277705512E-2</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="2">
         <f>SUM(S2:S5)</f>
         <v>-4.2102603887080516E-2</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="2">
         <f>SUM(T2:T5)</f>
         <v>-0.13278805489569784</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="2">
         <f>SUM(W2:W5)</f>
         <v>0.14146509303077565</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="2">
         <f>SUM(X2:X5)</f>
         <v>0.75692265188760421</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="2">
         <f>SUM(Y2:Y5)</f>
         <v>-0.10545618452326581</v>
       </c>
     </row>
     <row r="21" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q21" s="1"/>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
     </row>
     <row r="22" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4" t="s">
+      <c r="Q22" s="2"/>
+      <c r="R22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
     </row>
     <row r="24" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
     </row>
     <row r="25" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/Section Properties.xlsx
+++ b/src/Section Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08D8A9C-AD60-4434-981F-D609545D70FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A4C805-87D2-42D6-9897-9526A7C32BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="2868" windowWidth="30720" windowHeight="16680" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>Name of element</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>^ need to subtract more than 1/16, which is an estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Below values are assumed to be in the blue axis coord system below:</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -326,6 +329,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,7 +835,7 @@
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16"/>
+      <selection activeCell="AO18" sqref="AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,11 +999,11 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>D2-$AH$3</f>
+        <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
         <v>0.56979635487546165</v>
       </c>
       <c r="L2">
-        <f>E2-$AI$3</f>
+        <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
         <v>-0.31166592625587453</v>
       </c>
       <c r="M2">
@@ -1016,7 +1022,7 @@
         <v>255</v>
       </c>
       <c r="Q2">
-        <f>P2/$AH$7</f>
+        <f t="shared" ref="Q2:Q15" si="2">P2/$AH$7</f>
         <v>0.1275</v>
       </c>
       <c r="R2">
@@ -1032,11 +1038,11 @@
         <v>-5.60302734375E-2</v>
       </c>
       <c r="U2">
-        <f>D2-$AH$5</f>
+        <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
         <v>0.55631911859611249</v>
       </c>
       <c r="V2">
-        <f>E2-$AI$5</f>
+        <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
         <v>-0.21897636946224064</v>
       </c>
       <c r="W2">
@@ -1111,11 +1117,11 @@
         <v>-1.875</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F15" si="0">C3*D3</f>
+        <f t="shared" ref="F3:F15" si="5">C3*D3</f>
         <v>-0.24256522962906288</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="1">C3*E3</f>
+        <f t="shared" ref="G3:G15" si="6">C3*E3</f>
         <v>-0.45480980555449291</v>
       </c>
       <c r="H3">
@@ -1130,62 +1136,62 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f>D3-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>-0.46145364512453835</v>
       </c>
       <c r="L3">
-        <f>E3-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>-0.31166592625587453</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M15" si="2">C3*K3^2</f>
+        <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
         <v>5.1651710612609501E-2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N15" si="3">C3*L3^2</f>
+        <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
         <v>2.3561731147707529E-2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O15" si="4">C3*K3*L3</f>
+        <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
         <v>3.4885580384644552E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
       </c>
       <c r="Q3">
-        <f>P3/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.1275</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R15" si="5">Q3*C3</f>
+        <f t="shared" ref="R3:R15" si="10">Q3*C3</f>
         <v>3.0927066777705518E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S15" si="6">R3*D3</f>
+        <f t="shared" ref="S3:S15" si="11">R3*D3</f>
         <v>-3.0927066777705518E-2</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T15" si="7">R3*E3</f>
+        <f t="shared" ref="T3:T15" si="12">R3*E3</f>
         <v>-5.7988250208197846E-2</v>
       </c>
       <c r="U3">
-        <f>D3-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>-0.47493088140388751</v>
       </c>
       <c r="V3">
-        <f>E3-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>-0.21897636946224064</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W15" si="8">C3*U3^2</f>
+        <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
         <v>5.4712853614152887E-2</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X15" si="9">C3*V3^2</f>
+        <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
         <v>1.163116052098225E-2</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y15" si="10">C3*U3*V3</f>
+        <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
         <v>2.5226454030386754E-2</v>
       </c>
       <c r="Z3">
@@ -1254,11 +1260,11 @@
         <v>-6.25E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.140625</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-1.171875E-2</v>
       </c>
       <c r="H4">
@@ -1273,62 +1279,62 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>D4-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>-0.21145364512453835</v>
       </c>
       <c r="L4">
-        <f>E4-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>1.5008340737441255</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8.3836207568351619E-3</v>
       </c>
       <c r="N4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.42234429692088504</v>
       </c>
       <c r="O4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-5.9504406678807284E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
       </c>
       <c r="Q4">
-        <f>P4/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="R4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.4531249999999999E-2</v>
       </c>
       <c r="S4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1.08984375E-2</v>
       </c>
       <c r="T4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-9.0820312499999994E-4</v>
       </c>
       <c r="U4">
-        <f>D4-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>-0.22493088140388751</v>
       </c>
       <c r="V4">
-        <f>E4-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>1.5935236305377594</v>
       </c>
       <c r="W4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9.4863565142118203E-3</v>
       </c>
       <c r="X4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.4761220427029203</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-6.7206126516521442E-2</v>
       </c>
       <c r="Z4">
@@ -1391,11 +1397,11 @@
         <v>-3.6875</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-1.5625E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-0.23046875</v>
       </c>
       <c r="H5">
@@ -1410,62 +1416,62 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f>D5-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>0.28854635487546165</v>
       </c>
       <c r="L5">
-        <f>E5-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>-2.1241659262558743</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.2036874319947406E-3</v>
       </c>
       <c r="N5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.2820050551416548</v>
       </c>
       <c r="O5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-3.8307520948236952E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
       </c>
       <c r="Q5">
-        <f>P5/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="R5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.84375E-3</v>
       </c>
       <c r="S5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1.2109375E-3</v>
       </c>
       <c r="T5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1.7861328124999999E-2</v>
       </c>
       <c r="U5">
-        <f>D5-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>0.27506911859611249</v>
       </c>
       <c r="V5">
-        <f>E5-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>-2.0314763694622409</v>
       </c>
       <c r="W5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4.7289387503276379E-3</v>
       </c>
       <c r="X5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.25793101498021792</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-3.4924775899800573E-2</v>
       </c>
       <c r="Z5">
@@ -1533,11 +1539,11 @@
         <v>29</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
       <c r="G6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H6">
@@ -1552,62 +1558,62 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f>D6-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>0.66354635487546165</v>
       </c>
       <c r="L6" t="e">
-        <f>E6-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.8795900791955014E-3</v>
       </c>
       <c r="N6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P6">
         <v>1130</v>
       </c>
       <c r="Q6">
-        <f>P6/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
       <c r="T6" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U6">
-        <f>D6-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>0.65006911859611249</v>
       </c>
       <c r="V6" t="e">
-        <f>E6-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6.602966546130103E-3</v>
       </c>
       <c r="X6" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y6" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z6">
@@ -1643,92 +1649,92 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C15" si="11">0.125*0.125</f>
+        <f t="shared" ref="C7:C15" si="16">0.125*0.125</f>
         <v>1.5625E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="12">(1/16)+(1/8)/2</f>
+        <f t="shared" ref="D7:D10" si="17">(1/16)+(1/8)/2</f>
         <v>0.125</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
       <c r="G7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:I15" si="13">((1/8)^4)/12</f>
+        <f t="shared" ref="H7:I15" si="18">((1/8)^4)/12</f>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <f>D7-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>0.66354635487546165</v>
       </c>
       <c r="L7" t="e">
-        <f>E7-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.8795900791955014E-3</v>
       </c>
       <c r="N7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P7">
         <v>1130</v>
       </c>
       <c r="Q7">
-        <f>P7/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
       <c r="T7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U7">
-        <f>D7-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>0.65006911859611249</v>
       </c>
       <c r="V7" t="e">
-        <f>E7-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6.602966546130103E-3</v>
       </c>
       <c r="X7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y7" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z7">
@@ -1764,92 +1770,92 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.125</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
       <c r="G8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <f>D8-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>0.66354635487546165</v>
       </c>
       <c r="L8" t="e">
-        <f>E8-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.8795900791955014E-3</v>
       </c>
       <c r="N8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P8">
         <v>1130</v>
       </c>
       <c r="Q8">
-        <f>P8/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
       <c r="T8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U8">
-        <f>D8-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>0.65006911859611249</v>
       </c>
       <c r="V8" t="e">
-        <f>E8-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6.602966546130103E-3</v>
       </c>
       <c r="X8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y8" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z8">
@@ -1873,6 +1879,14 @@
       <c r="AF8" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="AG8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1882,92 +1896,92 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.125</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
       <c r="G9" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <f>D9-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>0.66354635487546165</v>
       </c>
       <c r="L9" t="e">
-        <f>E9-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.8795900791955014E-3</v>
       </c>
       <c r="N9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P9">
         <v>1130</v>
       </c>
       <c r="Q9">
-        <f>P9/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
       <c r="T9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U9">
-        <f>D9-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>0.65006911859611249</v>
       </c>
       <c r="V9" t="e">
-        <f>E9-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6.602966546130103E-3</v>
       </c>
       <c r="X9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y9" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z9">
@@ -2012,92 +2026,92 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.125</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
       <c r="G10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <f>D10-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>0.66354635487546165</v>
       </c>
       <c r="L10" t="e">
-        <f>E10-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.8795900791955014E-3</v>
       </c>
       <c r="N10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P10">
         <v>1130</v>
       </c>
       <c r="Q10">
-        <f>P10/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
       <c r="T10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U10">
-        <f>D10-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>0.65006911859611249</v>
       </c>
       <c r="V10" t="e">
-        <f>E10-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6.602966546130103E-3</v>
       </c>
       <c r="X10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z10">
@@ -2144,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2154,81 +2168,81 @@
         <v>29</v>
       </c>
       <c r="F11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="G11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="e">
-        <f>D11-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="L11" t="e">
-        <f>E11-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M11" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P11">
         <v>1130</v>
       </c>
       <c r="Q11">
-        <f>P11/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S11" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="T11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U11" t="e">
-        <f>D11-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="V11" t="e">
-        <f>E11-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="X11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y11" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z11">
@@ -2273,7 +2287,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2283,81 +2297,81 @@
         <v>29</v>
       </c>
       <c r="F12" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="G12" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="e">
-        <f>D12-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="L12" t="e">
-        <f>E12-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O12" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P12">
         <v>1130</v>
       </c>
       <c r="Q12">
-        <f>P12/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S12" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="T12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U12" t="e">
-        <f>D12-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="V12" t="e">
-        <f>E12-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W12" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="X12" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y12" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z12">
@@ -2404,7 +2418,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2414,81 +2428,81 @@
         <v>29</v>
       </c>
       <c r="F13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="G13" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="e">
-        <f>D13-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="L13" t="e">
-        <f>E13-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N13" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P13">
         <v>1130</v>
       </c>
       <c r="Q13">
-        <f>P13/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="T13" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U13" t="e">
-        <f>D13-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="V13" t="e">
-        <f>E13-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="X13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y13" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z13">
@@ -2521,7 +2535,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2531,81 +2545,81 @@
         <v>29</v>
       </c>
       <c r="F14" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="G14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="e">
-        <f>D14-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="L14" t="e">
-        <f>E14-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M14" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N14" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P14">
         <v>1130</v>
       </c>
       <c r="Q14">
-        <f>P14/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S14" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="T14" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U14" t="e">
-        <f>D14-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="V14" t="e">
-        <f>E14-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="X14" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y14" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z14">
@@ -2641,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2651,81 +2665,81 @@
         <v>29</v>
       </c>
       <c r="F15" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="G15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="e">
-        <f>D15-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="L15" t="e">
-        <f>E15-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N15" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P15">
         <v>1130</v>
       </c>
       <c r="Q15">
-        <f>P15/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="T15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U15" t="e">
-        <f>D15-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="V15" t="e">
-        <f>E15-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W15" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="X15" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y15" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z15">
@@ -2856,8 +2870,9 @@
       <c r="V25" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="Q23:V25"/>
+    <mergeCell ref="AG8:AL8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Section Properties.xlsx
+++ b/src/Section Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08D8A9C-AD60-4434-981F-D609545D70FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEFFBFA-4DA6-445F-AF40-8AFD2D30156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="2868" windowWidth="30720" windowHeight="16680" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
+    <workbookView xWindow="13584" yWindow="1728" windowWidth="19464" windowHeight="11616" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="82">
   <si>
     <t>Name of element</t>
   </si>
@@ -258,7 +258,28 @@
     <t>Rib x Location (in)</t>
   </si>
   <si>
-    <t>^ need to subtract more than 1/16, which is an estimate</t>
+    <t>End Loads in the X Direction(lbf)</t>
+  </si>
+  <si>
+    <t>End Loads in the Y Direction(lbf)</t>
+  </si>
+  <si>
+    <t>Y Position along the Y-Axis(in)</t>
+  </si>
+  <si>
+    <t>Z Position along the Z-Axis(in)</t>
+  </si>
+  <si>
+    <t>End Loads in the Z Direction(lbf)</t>
+  </si>
+  <si>
+    <t>Length of the beam in X (in)</t>
+  </si>
+  <si>
+    <t>X position of End Loads (in)</t>
+  </si>
+  <si>
+    <t>P=100, Our Goal</t>
   </si>
 </sst>
 </file>
@@ -318,12 +339,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,11 +848,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3812326-F393-4F18-B450-8E22F40B5680}">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -854,9 +874,19 @@
     <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -953,8 +983,38 @@
       <c r="AF1" t="s">
         <v>73</v>
       </c>
+      <c r="AO1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -993,30 +1053,30 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>D2-$AH$3</f>
-        <v>0.56979635487546165</v>
+        <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
+        <v>0.56591783718449529</v>
       </c>
       <c r="L2">
-        <f>E2-$AI$3</f>
-        <v>-0.31166592625587453</v>
+        <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
+        <v>-0.3121279259654981</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>7.6094035788131953E-2</v>
+        <v>7.5061640260213336E-2</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>2.2766167872405988E-2</v>
+        <v>2.2833713008013311E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-4.1621744231128535E-2</v>
+        <v>-4.1399709559518036E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
       </c>
       <c r="Q2">
-        <f>P2/$AH$7</f>
+        <f t="shared" ref="Q2:Q15" si="2">P2/$AH$7</f>
         <v>0.1275</v>
       </c>
       <c r="R2">
@@ -1032,24 +1092,24 @@
         <v>-5.60302734375E-2</v>
       </c>
       <c r="U2">
-        <f>D2-$AH$5</f>
-        <v>0.55631911859611249</v>
+        <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
+        <v>0.5539642634627947</v>
       </c>
       <c r="V2">
-        <f>E2-$AI$5</f>
-        <v>-0.21897636946224064</v>
+        <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
+        <v>-0.22084018128948202</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>7.253694415208331E-2</v>
+        <v>7.1924157467314828E-2</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>1.1238433683483684E-2</v>
+        <v>1.143055914186827E-2</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-2.8551736137330561E-2</v>
+        <v>-2.8672867586957335E-2</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1066,8 +1126,9 @@
       <c r="AD2">
         <v>5.6</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>29</v>
+      <c r="AE2" s="5">
+        <f>C2*$AX$2</f>
+        <v>10.78125</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>61</v>
@@ -1090,8 +1151,39 @@
       <c r="AM2" t="s">
         <v>35</v>
       </c>
+      <c r="AO2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR2">
+        <v>5</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <f>-AI3</f>
+        <v>1.5628720740345019</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1099,24 +1191,24 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f>SQRT(1+3.75^2)*0.0625</f>
-        <v>0.24256522962906288</v>
+        <f>((2*SQRT(1+3.75^2)+(6/180))*0.0625)/2</f>
+        <v>0.24360689629572954</v>
       </c>
       <c r="D3">
         <f>SQRT(1+3.75^2)/2*SIN(ATAN(1/3.75))-1.5</f>
         <v>-1</v>
       </c>
       <c r="E3">
-        <f>-SQRT(1+3.75^2)/2*COS(ATAN(1/3.75))</f>
-        <v>-1.875</v>
+        <f>((-SQRT(1+3.75^2)+(3/180))/2)*COS(ATAN(1/3.75))</f>
+        <v>-1.8669480421699898</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F15" si="0">C3*D3</f>
-        <v>-0.24256522962906288</v>
+        <f t="shared" ref="F3:F15" si="5">C3*D3</f>
+        <v>-0.24360689629572954</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="1">C3*E3</f>
-        <v>-0.45480980555449291</v>
+        <f t="shared" ref="G3:G15" si="6">C3*E3</f>
+        <v>-0.45480141809842001</v>
       </c>
       <c r="H3">
         <f>((1/16)*(SQRT(1+3.75^2)^3))/12</f>
@@ -1130,63 +1222,63 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f>D3-$AH$3</f>
-        <v>-0.46145364512453835</v>
+        <f t="shared" si="0"/>
+        <v>-0.46533216281550471</v>
       </c>
       <c r="L3">
-        <f>E3-$AI$3</f>
-        <v>-0.31166592625587453</v>
+        <f t="shared" si="1"/>
+        <v>-0.30407596813548787</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M15" si="2">C3*K3^2</f>
-        <v>5.1651710612609501E-2</v>
+        <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
+        <v>5.2749180981084789E-2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N15" si="3">C3*L3^2</f>
-        <v>2.3561731147707529E-2</v>
+        <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
+        <v>2.252442820187571E-2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O15" si="4">C3*K3*L3</f>
-        <v>3.4885580384644552E-2</v>
+        <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
+        <v>3.4469481280056884E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
       </c>
       <c r="Q3">
-        <f>P3/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.1275</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R15" si="5">Q3*C3</f>
-        <v>3.0927066777705518E-2</v>
+        <f t="shared" ref="R3:R15" si="10">Q3*C3</f>
+        <v>3.1059879277705517E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S15" si="6">R3*D3</f>
-        <v>-3.0927066777705518E-2</v>
+        <f t="shared" ref="S3:S15" si="11">R3*D3</f>
+        <v>-3.1059879277705517E-2</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T15" si="7">R3*E3</f>
-        <v>-5.7988250208197846E-2</v>
+        <f t="shared" ref="T3:T15" si="12">R3*E3</f>
+        <v>-5.7987180807548548E-2</v>
       </c>
       <c r="U3">
-        <f>D3-$AH$5</f>
-        <v>-0.47493088140388751</v>
+        <f t="shared" si="3"/>
+        <v>-0.4772857365372053</v>
       </c>
       <c r="V3">
-        <f>E3-$AI$5</f>
-        <v>-0.21897636946224064</v>
+        <f t="shared" si="4"/>
+        <v>-0.21278822345947179</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W15" si="8">C3*U3^2</f>
-        <v>5.4712853614152887E-2</v>
+        <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
+        <v>5.5494058847647389E-2</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X15" si="9">C3*V3^2</f>
-        <v>1.163116052098225E-2</v>
+        <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
+        <v>1.1030234767472552E-2</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y15" si="10">C3*U3*V3</f>
-        <v>2.5226454030386754E-2</v>
+        <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
+        <v>2.4740907365929168E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1203,38 +1295,70 @@
       <c r="AD3">
         <v>5.6</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>29</v>
+      <c r="AE3" s="5">
+        <f t="shared" ref="AE3:AE15" si="16">C3*$AX$2</f>
+        <v>11.205917229603559</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AH3">
         <f>F16/C16</f>
-        <v>-0.53854635487546165</v>
+        <v>-0.53466783718449529</v>
       </c>
       <c r="AI3">
         <f>G16/C16</f>
-        <v>-1.5633340737441255</v>
+        <v>-1.5628720740345019</v>
       </c>
       <c r="AJ3">
         <f>H16+N16</f>
-        <v>1.3301308726482999</v>
+        <v>1.3431179030816649</v>
       </c>
       <c r="AK3">
         <f>I16+M16</f>
-        <v>0.16622789190390372</v>
+        <v>0.16542169027461398</v>
       </c>
       <c r="AL3">
         <f>J16+O16</f>
-        <v>-0.10454809147352823</v>
+        <v>-0.10250059727701728</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.21017454748586947</v>
+        <v>0.21167446132371889</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <f>-1.875-AI3</f>
+        <v>-0.3121279259654981</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1242,24 +1366,24 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f>1.5*0.125</f>
-        <v>0.1875</v>
+        <f>((3+(3/90))*0.125)/2</f>
+        <v>0.18958333333333333</v>
       </c>
       <c r="D4">
-        <f>-1.5/2</f>
-        <v>-0.75</v>
+        <f>(-1.5+(3/90))/2</f>
+        <v>-0.73333333333333328</v>
       </c>
       <c r="E4">
         <f>-1/16</f>
         <v>-6.25E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>-0.140625</v>
+        <f t="shared" si="5"/>
+        <v>-0.13902777777777775</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>-1.171875E-2</v>
+        <f t="shared" si="6"/>
+        <v>-1.1848958333333333E-2</v>
       </c>
       <c r="H4">
         <f>(1.5*(1/8)^3)/12</f>
@@ -1273,63 +1397,63 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>D4-$AH$3</f>
-        <v>-0.21145364512453835</v>
+        <f t="shared" si="0"/>
+        <v>-0.19866549614883799</v>
       </c>
       <c r="L4">
-        <f>E4-$AI$3</f>
-        <v>1.5008340737441255</v>
+        <f t="shared" si="1"/>
+        <v>1.5003720740345019</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
-        <v>8.3836207568351619E-3</v>
+        <f t="shared" si="7"/>
+        <v>7.4824710870121268E-3</v>
       </c>
       <c r="N4">
-        <f t="shared" si="3"/>
-        <v>0.42234429692088504</v>
+        <f t="shared" si="8"/>
+        <v>0.42677414335286651</v>
       </c>
       <c r="O4">
-        <f t="shared" si="4"/>
-        <v>-5.9504406678807284E-2</v>
+        <f t="shared" si="9"/>
+        <v>-5.6509514139852522E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
       </c>
       <c r="Q4">
-        <f>P4/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="R4">
-        <f t="shared" si="5"/>
-        <v>1.4531249999999999E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.4692708333333332E-2</v>
       </c>
       <c r="S4">
-        <f t="shared" si="6"/>
-        <v>-1.08984375E-2</v>
+        <f t="shared" si="11"/>
+        <v>-1.0774652777777775E-2</v>
       </c>
       <c r="T4">
-        <f t="shared" si="7"/>
-        <v>-9.0820312499999994E-4</v>
+        <f t="shared" si="12"/>
+        <v>-9.1829427083333325E-4</v>
       </c>
       <c r="U4">
-        <f>D4-$AH$5</f>
-        <v>-0.22493088140388751</v>
+        <f t="shared" si="3"/>
+        <v>-0.21061906987053858</v>
       </c>
       <c r="V4">
-        <f>E4-$AI$5</f>
-        <v>1.5935236305377594</v>
+        <f t="shared" si="4"/>
+        <v>1.591659818710518</v>
       </c>
       <c r="W4">
-        <f t="shared" si="8"/>
-        <v>9.4863565142118203E-3</v>
+        <f t="shared" si="13"/>
+        <v>8.4099910957810501E-3</v>
       </c>
       <c r="X4">
-        <f t="shared" si="9"/>
-        <v>0.4761220427029203</v>
+        <f t="shared" si="14"/>
+        <v>0.48028681050683647</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="10"/>
-        <v>-6.7206126516521442E-2</v>
+        <f t="shared" si="15"/>
+        <v>-6.3554762211683033E-2</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1346,8 +1470,9 @@
       <c r="AD4">
         <v>5.3</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>29</v>
+      <c r="AE4" s="5">
+        <f t="shared" si="16"/>
+        <v>8.7208333333333332</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>61</v>
@@ -1370,8 +1495,39 @@
       <c r="AM4" t="s">
         <v>49</v>
       </c>
+      <c r="AO4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX4">
+        <f>AX2-0.375</f>
+        <v>45.625</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1379,8 +1535,8 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f>0.5*0.125</f>
-        <v>6.25E-2</v>
+        <f>((1+(3/90))*0.125)/2</f>
+        <v>6.458333333333334E-2</v>
       </c>
       <c r="D5">
         <f>-0.5/2</f>
@@ -1391,12 +1547,12 @@
         <v>-3.6875</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-1.5625E-2</v>
+        <f t="shared" si="5"/>
+        <v>-1.6145833333333335E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>-0.23046875</v>
+        <f t="shared" si="6"/>
+        <v>-0.2381510416666667</v>
       </c>
       <c r="H5">
         <f>(0.5*(1/8)^3)/12</f>
@@ -1410,63 +1566,63 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f>D5-$AH$3</f>
-        <v>0.28854635487546165</v>
+        <f t="shared" si="0"/>
+        <v>0.28466783718449529</v>
       </c>
       <c r="L5">
-        <f>E5-$AI$3</f>
-        <v>-2.1241659262558743</v>
+        <f t="shared" si="1"/>
+        <v>-2.1246279259654983</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
-        <v>5.2036874319947406E-3</v>
+        <f t="shared" si="7"/>
+        <v>5.2335606319713502E-3</v>
       </c>
       <c r="N5">
-        <f t="shared" si="3"/>
-        <v>0.2820050551416548</v>
+        <f t="shared" si="8"/>
+        <v>0.29153199695326271</v>
       </c>
       <c r="O5">
-        <f t="shared" si="4"/>
-        <v>-3.8307520948236952E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.9060854857703609E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
       </c>
       <c r="Q5">
-        <f>P5/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="R5">
-        <f t="shared" si="5"/>
-        <v>4.84375E-3</v>
+        <f t="shared" si="10"/>
+        <v>5.0052083333333337E-3</v>
       </c>
       <c r="S5">
-        <f t="shared" si="6"/>
-        <v>-1.2109375E-3</v>
+        <f t="shared" si="11"/>
+        <v>-1.2513020833333334E-3</v>
       </c>
       <c r="T5">
-        <f t="shared" si="7"/>
-        <v>-1.7861328124999999E-2</v>
+        <f t="shared" si="12"/>
+        <v>-1.8456705729166668E-2</v>
       </c>
       <c r="U5">
-        <f>D5-$AH$5</f>
-        <v>0.27506911859611249</v>
+        <f t="shared" si="3"/>
+        <v>0.2727142634627947</v>
       </c>
       <c r="V5">
-        <f>E5-$AI$5</f>
-        <v>-2.0314763694622409</v>
+        <f t="shared" si="4"/>
+        <v>-2.033340181289482</v>
       </c>
       <c r="W5">
-        <f t="shared" si="8"/>
-        <v>4.7289387503276379E-3</v>
+        <f t="shared" si="13"/>
+        <v>4.8032607382868598E-3</v>
       </c>
       <c r="X5">
-        <f t="shared" si="9"/>
-        <v>0.25793101498021792</v>
+        <f t="shared" si="14"/>
+        <v>0.26701800224632638</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="10"/>
-        <v>-3.4924775899800573E-2</v>
+        <f t="shared" si="15"/>
+        <v>-3.581280618166597E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1483,38 +1639,66 @@
       <c r="AD5">
         <v>5.3</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>29</v>
+      <c r="AE5" s="5">
+        <f t="shared" si="16"/>
+        <v>2.9708333333333337</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AH5">
         <f>S16/R16</f>
-        <v>-0.52506911859611249</v>
+        <v>-0.5227142634627947</v>
       </c>
       <c r="AI5">
         <f>T16/R16</f>
-        <v>-1.6560236305377594</v>
+        <v>-1.654159818710518</v>
       </c>
       <c r="AJ5">
         <f>H16+X16</f>
-        <v>1.3363762734532507</v>
+        <v>1.3492192282281503</v>
       </c>
       <c r="AK5">
         <f>I16+W16</f>
-        <v>0.16635993034510801</v>
+        <v>0.1655263054633625</v>
       </c>
       <c r="AL5">
         <f>J16+Y16</f>
-        <v>-0.10545618452326581</v>
+        <v>-0.10329952861437716</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>0.21119845691233272</v>
+        <v>0.21266048149678249</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1533,11 +1717,11 @@
         <v>29</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
       <c r="G6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H6">
@@ -1552,62 +1736,62 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f>D6-$AH$3</f>
-        <v>0.66354635487546165</v>
+        <f t="shared" si="0"/>
+        <v>0.65966783718449529</v>
       </c>
       <c r="L6" t="e">
-        <f>E6-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
-        <v>6.8795900791955014E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.79940086586984E-3</v>
       </c>
       <c r="N6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P6">
         <v>1130</v>
       </c>
       <c r="Q6">
-        <f>P6/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
       <c r="T6" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U6">
-        <f>D6-$AH$5</f>
-        <v>0.65006911859611249</v>
+        <f t="shared" si="3"/>
+        <v>0.6477142634627947</v>
       </c>
       <c r="V6" t="e">
-        <f>E6-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W6">
-        <f t="shared" si="8"/>
-        <v>6.602966546130103E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.555215110830479E-3</v>
       </c>
       <c r="X6" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y6" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z6">
@@ -1625,8 +1809,9 @@
       <c r="AD6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>29</v>
+      <c r="AE6" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>61</v>
@@ -1634,8 +1819,35 @@
       <c r="AH6" t="s">
         <v>39</v>
       </c>
+      <c r="AO6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1643,92 +1855,92 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C15" si="11">0.125*0.125</f>
+        <f t="shared" ref="C7:C15" si="17">0.125*0.125</f>
         <v>1.5625E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="12">(1/16)+(1/8)/2</f>
+        <f t="shared" ref="D7:D10" si="18">(1/16)+(1/8)/2</f>
         <v>0.125</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
       <c r="G7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:I15" si="13">((1/8)^4)/12</f>
+        <f t="shared" ref="H7:I15" si="19">((1/8)^4)/12</f>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <f>D7-$AH$3</f>
-        <v>0.66354635487546165</v>
+        <f t="shared" si="0"/>
+        <v>0.65966783718449529</v>
       </c>
       <c r="L7" t="e">
-        <f>E7-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
-        <v>6.8795900791955014E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.79940086586984E-3</v>
       </c>
       <c r="N7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P7">
         <v>1130</v>
       </c>
       <c r="Q7">
-        <f>P7/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
       <c r="T7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U7">
-        <f>D7-$AH$5</f>
-        <v>0.65006911859611249</v>
+        <f t="shared" si="3"/>
+        <v>0.6477142634627947</v>
       </c>
       <c r="V7" t="e">
-        <f>E7-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W7">
-        <f t="shared" si="8"/>
-        <v>6.602966546130103E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.555215110830479E-3</v>
       </c>
       <c r="X7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y7" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z7">
@@ -1746,8 +1958,9 @@
       <c r="AD7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>29</v>
+      <c r="AE7" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>61</v>
@@ -1755,8 +1968,35 @@
       <c r="AH7">
         <v>2000</v>
       </c>
+      <c r="AO7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1764,92 +2004,92 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
       <c r="G8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <f>D8-$AH$3</f>
-        <v>0.66354635487546165</v>
+        <f t="shared" si="0"/>
+        <v>0.65966783718449529</v>
       </c>
       <c r="L8" t="e">
-        <f>E8-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
-        <v>6.8795900791955014E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.79940086586984E-3</v>
       </c>
       <c r="N8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P8">
         <v>1130</v>
       </c>
       <c r="Q8">
-        <f>P8/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
       <c r="T8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U8">
-        <f>D8-$AH$5</f>
-        <v>0.65006911859611249</v>
+        <f t="shared" si="3"/>
+        <v>0.6477142634627947</v>
       </c>
       <c r="V8" t="e">
-        <f>E8-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W8">
-        <f t="shared" si="8"/>
-        <v>6.602966546130103E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.555215110830479E-3</v>
       </c>
       <c r="X8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y8" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z8">
@@ -1867,14 +2107,42 @@
       <c r="AD8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>29</v>
+      <c r="AE8" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="AO8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1882,92 +2150,92 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
       <c r="G9" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <f>D9-$AH$3</f>
-        <v>0.66354635487546165</v>
+        <f t="shared" si="0"/>
+        <v>0.65966783718449529</v>
       </c>
       <c r="L9" t="e">
-        <f>E9-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
-        <v>6.8795900791955014E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.79940086586984E-3</v>
       </c>
       <c r="N9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P9">
         <v>1130</v>
       </c>
       <c r="Q9">
-        <f>P9/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
       <c r="T9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U9">
-        <f>D9-$AH$5</f>
-        <v>0.65006911859611249</v>
+        <f t="shared" si="3"/>
+        <v>0.6477142634627947</v>
       </c>
       <c r="V9" t="e">
-        <f>E9-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W9">
-        <f t="shared" si="8"/>
-        <v>6.602966546130103E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.555215110830479E-3</v>
       </c>
       <c r="X9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y9" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z9">
@@ -1985,8 +2253,9 @@
       <c r="AD9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>29</v>
+      <c r="AE9" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>61</v>
@@ -2003,8 +2272,35 @@
       <c r="AK9" t="s">
         <v>69</v>
       </c>
+      <c r="AO9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2012,92 +2308,92 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
       <c r="G10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <f>D10-$AH$3</f>
-        <v>0.66354635487546165</v>
+        <f t="shared" si="0"/>
+        <v>0.65966783718449529</v>
       </c>
       <c r="L10" t="e">
-        <f>E10-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
-        <v>6.8795900791955014E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.79940086586984E-3</v>
       </c>
       <c r="N10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P10">
         <v>1130</v>
       </c>
       <c r="Q10">
-        <f>P10/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
       <c r="T10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U10">
-        <f>D10-$AH$5</f>
-        <v>0.65006911859611249</v>
+        <f t="shared" si="3"/>
+        <v>0.6477142634627947</v>
       </c>
       <c r="V10" t="e">
-        <f>E10-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W10">
-        <f t="shared" si="8"/>
-        <v>6.602966546130103E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.555215110830479E-3</v>
       </c>
       <c r="X10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z10">
@@ -2115,8 +2411,9 @@
       <c r="AD10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE10" s="1" t="s">
-        <v>29</v>
+      <c r="AE10" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>61</v>
@@ -2128,15 +2425,42 @@
       <c r="AI10">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1">
-        <f>-1.5-(1/16)</f>
-        <v>-1.5625</v>
+      <c r="AJ10" s="5">
+        <f>-1.5-SQRT((1/16)^2+(3/180)^2)</f>
+        <v>-1.5646840612344168</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
+      <c r="AO10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2144,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2154,81 +2478,81 @@
         <v>29</v>
       </c>
       <c r="F11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="G11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="e">
-        <f>D11-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="L11" t="e">
-        <f>E11-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M11" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P11">
         <v>1130</v>
       </c>
       <c r="Q11">
-        <f>P11/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S11" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="T11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U11" t="e">
-        <f>D11-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="V11" t="e">
-        <f>E11-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="X11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y11" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z11">
@@ -2246,8 +2570,9 @@
       <c r="AD11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE11" s="1" t="s">
-        <v>29</v>
+      <c r="AE11" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>61</v>
@@ -2264,8 +2589,35 @@
       <c r="AK11" t="s">
         <v>71</v>
       </c>
+      <c r="AO11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2273,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2283,81 +2635,81 @@
         <v>29</v>
       </c>
       <c r="F12" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="G12" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="e">
-        <f>D12-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="L12" t="e">
-        <f>E12-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O12" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P12">
         <v>1130</v>
       </c>
       <c r="Q12">
-        <f>P12/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S12" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="T12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U12" t="e">
-        <f>D12-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="V12" t="e">
-        <f>E12-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W12" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="X12" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y12" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z12">
@@ -2375,8 +2727,9 @@
       <c r="AD12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE12" s="1" t="s">
-        <v>29</v>
+      <c r="AE12" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>61</v>
@@ -2388,15 +2741,42 @@
       <c r="AI12">
         <v>-3.75</v>
       </c>
-      <c r="AJ12" s="1">
-        <f>-0.5-(1/16)</f>
-        <v>-0.5625</v>
+      <c r="AJ12" s="5">
+        <f>-0.5-SQRT((1/16)^2+(3/180)^2)</f>
+        <v>-0.56468406123441672</v>
       </c>
       <c r="AK12">
         <v>-3.75</v>
       </c>
+      <c r="AO12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2404,7 +2784,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2414,81 +2794,81 @@
         <v>29</v>
       </c>
       <c r="F13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="G13" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="e">
-        <f>D13-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="L13" t="e">
-        <f>E13-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N13" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P13">
         <v>1130</v>
       </c>
       <c r="Q13">
-        <f>P13/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="T13" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U13" t="e">
-        <f>D13-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="V13" t="e">
-        <f>E13-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="X13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y13" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z13">
@@ -2506,14 +2886,42 @@
       <c r="AD13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE13" s="1" t="s">
-        <v>29</v>
+      <c r="AE13" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="AO13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2521,7 +2929,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2531,81 +2939,81 @@
         <v>29</v>
       </c>
       <c r="F14" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="G14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="e">
-        <f>D14-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="L14" t="e">
-        <f>E14-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M14" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N14" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P14">
         <v>1130</v>
       </c>
       <c r="Q14">
-        <f>P14/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S14" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="T14" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U14" t="e">
-        <f>D14-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="V14" t="e">
-        <f>E14-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="X14" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y14" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z14">
@@ -2623,17 +3031,42 @@
       <c r="AD14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE14" s="1" t="s">
-        <v>29</v>
+      <c r="AE14" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>74</v>
+      <c r="AO14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2641,7 +3074,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2651,81 +3084,81 @@
         <v>29</v>
       </c>
       <c r="F15" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="G15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="e">
-        <f>D15-$AH$3</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="L15" t="e">
-        <f>E15-$AI$3</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="M15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N15" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="P15">
         <v>1130</v>
       </c>
       <c r="Q15">
-        <f>P15/$AH$7</f>
+        <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="R15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
       <c r="S15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="T15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="U15" t="e">
-        <f>D15-$AH$5</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="V15" t="e">
-        <f>E15-$AI$5</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="W15" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="X15" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y15" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z15">
@@ -2743,28 +3176,56 @@
       <c r="AD15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>29</v>
+      <c r="AE15" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="AO15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C5)</f>
-        <v>0.72694022962906291</v>
+        <v>0.73214856296239617</v>
       </c>
       <c r="F16" s="2">
         <f>SUM(F2:F5)</f>
-        <v>-0.39149101087906291</v>
+        <v>-0.39145628865684062</v>
       </c>
       <c r="G16" s="2">
         <f>SUM(G2:G5)</f>
-        <v>-1.1364504305544929</v>
+        <v>-1.1442545430984201</v>
       </c>
       <c r="H16" s="2">
         <f>SUM(H2:H5)</f>
@@ -2780,39 +3241,39 @@
       </c>
       <c r="M16" s="2">
         <f>SUM(M2:M5)</f>
-        <v>0.14133305458957135</v>
+        <v>0.14052685296028161</v>
       </c>
       <c r="N16" s="2">
         <f>SUM(N2:N5)</f>
-        <v>0.75067725108265337</v>
+        <v>0.76366428151601817</v>
       </c>
       <c r="O16" s="2">
         <f>SUM(O2:O5)</f>
-        <v>-0.10454809147352823</v>
+        <v>-0.10250059727701728</v>
       </c>
       <c r="R16" s="2">
         <f>SUM(R2:R5)</f>
-        <v>8.0184879277705512E-2</v>
+        <v>8.064060844437218E-2</v>
       </c>
       <c r="S16" s="2">
         <f>SUM(S2:S5)</f>
-        <v>-4.2102603887080516E-2</v>
+        <v>-4.2151996248191631E-2</v>
       </c>
       <c r="T16" s="2">
         <f>SUM(T2:T5)</f>
-        <v>-0.13278805489569784</v>
+        <v>-0.13339245424504856</v>
       </c>
       <c r="W16" s="2">
         <f>SUM(W2:W5)</f>
-        <v>0.14146509303077565</v>
+        <v>0.14063146814903013</v>
       </c>
       <c r="X16" s="2">
         <f>SUM(X2:X5)</f>
-        <v>0.75692265188760421</v>
+        <v>0.7697656066625036</v>
       </c>
       <c r="Y16" s="2">
         <f>SUM(Y2:Y5)</f>
-        <v>-0.10545618452326581</v>
+        <v>-0.10329952861437716</v>
       </c>
     </row>
     <row r="21" spans="17:22" x14ac:dyDescent="0.3">
@@ -2830,30 +3291,30 @@
       </c>
     </row>
     <row r="23" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
     </row>
     <row r="25" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/Section Properties.xlsx
+++ b/src/Section Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A4C805-87D2-42D6-9897-9526A7C32BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0962D3C9-D0E2-4814-9EB6-38E37EEE39E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
+    <workbookView xWindow="2940" yWindow="1560" windowWidth="18624" windowHeight="12432" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="83">
   <si>
     <t>Name of element</t>
   </si>
@@ -258,7 +258,28 @@
     <t>Rib x Location (in)</t>
   </si>
   <si>
-    <t>^ need to subtract more than 1/16, which is an estimate</t>
+    <t>End Loads in the X Direction(lbf)</t>
+  </si>
+  <si>
+    <t>End Loads in the Y Direction(lbf)</t>
+  </si>
+  <si>
+    <t>Y Position along the Y-Axis(in)</t>
+  </si>
+  <si>
+    <t>Z Position along the Z-Axis(in)</t>
+  </si>
+  <si>
+    <t>End Loads in the Z Direction(lbf)</t>
+  </si>
+  <si>
+    <t>Length of the beam in X (in)</t>
+  </si>
+  <si>
+    <t>X position of End Loads (in)</t>
+  </si>
+  <si>
+    <t>P=100, Our Goal</t>
   </si>
   <si>
     <t xml:space="preserve">         Below values are assumed to be in the blue axis coord system below:</t>
@@ -321,12 +342,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -832,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3812326-F393-4F18-B450-8E22F40B5680}">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AO18" sqref="AO18"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,9 +882,19 @@
     <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,8 +991,38 @@
       <c r="AF1" t="s">
         <v>73</v>
       </c>
+      <c r="AO1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1000,23 +1062,23 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
-        <v>0.56979635487546165</v>
+        <v>0.56591783718449529</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
-        <v>-0.31166592625587453</v>
+        <v>-0.3121279259654981</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>7.6094035788131953E-2</v>
+        <v>7.5061640260213336E-2</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>2.2766167872405988E-2</v>
+        <v>2.2833713008013311E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-4.1621744231128535E-2</v>
+        <v>-4.1399709559518036E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
@@ -1039,23 +1101,23 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
-        <v>0.55631911859611249</v>
+        <v>0.5539642634627947</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
-        <v>-0.21897636946224064</v>
+        <v>-0.22084018128948202</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>7.253694415208331E-2</v>
+        <v>7.1924157467314828E-2</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>1.1238433683483684E-2</v>
+        <v>1.143055914186827E-2</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-2.8551736137330561E-2</v>
+        <v>-2.8672867586957335E-2</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1072,8 +1134,9 @@
       <c r="AD2">
         <v>5.6</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>29</v>
+      <c r="AE2" s="5">
+        <f>C2*$AX$2</f>
+        <v>10.78125</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>61</v>
@@ -1096,8 +1159,39 @@
       <c r="AM2" t="s">
         <v>35</v>
       </c>
+      <c r="AO2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR2">
+        <v>5</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <f>-AI3</f>
+        <v>1.5628720740345019</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1105,24 +1199,24 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f>SQRT(1+3.75^2)*0.0625</f>
-        <v>0.24256522962906288</v>
+        <f>((2*SQRT(1+3.75^2)+(6/180))*0.0625)/2</f>
+        <v>0.24360689629572954</v>
       </c>
       <c r="D3">
         <f>SQRT(1+3.75^2)/2*SIN(ATAN(1/3.75))-1.5</f>
         <v>-1</v>
       </c>
       <c r="E3">
-        <f>-SQRT(1+3.75^2)/2*COS(ATAN(1/3.75))</f>
-        <v>-1.875</v>
+        <f>((-SQRT(1+3.75^2)+(3/180))/2)*COS(ATAN(1/3.75))</f>
+        <v>-1.8669480421699898</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F15" si="5">C3*D3</f>
-        <v>-0.24256522962906288</v>
+        <v>-0.24360689629572954</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G15" si="6">C3*E3</f>
-        <v>-0.45480980555449291</v>
+        <v>-0.45480141809842001</v>
       </c>
       <c r="H3">
         <f>((1/16)*(SQRT(1+3.75^2)^3))/12</f>
@@ -1137,23 +1231,23 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.46145364512453835</v>
+        <v>-0.46533216281550471</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-0.31166592625587453</v>
+        <v>-0.30407596813548787</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
-        <v>5.1651710612609501E-2</v>
+        <v>5.2749180981084789E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
-        <v>2.3561731147707529E-2</v>
+        <v>2.252442820187571E-2</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
-        <v>3.4885580384644552E-2</v>
+        <v>3.4469481280056884E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1164,35 +1258,35 @@
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R15" si="10">Q3*C3</f>
-        <v>3.0927066777705518E-2</v>
+        <v>3.1059879277705517E-2</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S15" si="11">R3*D3</f>
-        <v>-3.0927066777705518E-2</v>
+        <v>-3.1059879277705517E-2</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T15" si="12">R3*E3</f>
-        <v>-5.7988250208197846E-2</v>
+        <v>-5.7987180807548548E-2</v>
       </c>
       <c r="U3">
         <f t="shared" si="3"/>
-        <v>-0.47493088140388751</v>
+        <v>-0.4772857365372053</v>
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
-        <v>-0.21897636946224064</v>
+        <v>-0.21278822345947179</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
-        <v>5.4712853614152887E-2</v>
+        <v>5.5494058847647389E-2</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
-        <v>1.163116052098225E-2</v>
+        <v>1.1030234767472552E-2</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
-        <v>2.5226454030386754E-2</v>
+        <v>2.4740907365929168E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1209,38 +1303,70 @@
       <c r="AD3">
         <v>5.6</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>29</v>
+      <c r="AE3" s="5">
+        <f t="shared" ref="AE3:AE15" si="16">C3*$AX$2</f>
+        <v>11.205917229603559</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AH3">
         <f>F16/C16</f>
-        <v>-0.53854635487546165</v>
+        <v>-0.53466783718449529</v>
       </c>
       <c r="AI3">
         <f>G16/C16</f>
-        <v>-1.5633340737441255</v>
+        <v>-1.5628720740345019</v>
       </c>
       <c r="AJ3">
         <f>H16+N16</f>
-        <v>1.3301308726482999</v>
+        <v>1.3431179030816649</v>
       </c>
       <c r="AK3">
         <f>I16+M16</f>
-        <v>0.16622789190390372</v>
+        <v>0.16542169027461398</v>
       </c>
       <c r="AL3">
         <f>J16+O16</f>
-        <v>-0.10454809147352823</v>
+        <v>-0.10250059727701728</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.21017454748586947</v>
+        <v>0.21167446132371889</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <f>-1.875-AI3</f>
+        <v>-0.3121279259654981</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1248,12 +1374,12 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f>1.5*0.125</f>
-        <v>0.1875</v>
+        <f>((3+(3/90))*0.125)/2</f>
+        <v>0.18958333333333333</v>
       </c>
       <c r="D4">
-        <f>-1.5/2</f>
-        <v>-0.75</v>
+        <f>(-1.5+(3/90))/2</f>
+        <v>-0.73333333333333328</v>
       </c>
       <c r="E4">
         <f>-1/16</f>
@@ -1261,11 +1387,11 @@
       </c>
       <c r="F4">
         <f t="shared" si="5"/>
-        <v>-0.140625</v>
+        <v>-0.13902777777777775</v>
       </c>
       <c r="G4">
         <f t="shared" si="6"/>
-        <v>-1.171875E-2</v>
+        <v>-1.1848958333333333E-2</v>
       </c>
       <c r="H4">
         <f>(1.5*(1/8)^3)/12</f>
@@ -1280,23 +1406,23 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-0.21145364512453835</v>
+        <v>-0.19866549614883799</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.5008340737441255</v>
+        <v>1.5003720740345019</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>8.3836207568351619E-3</v>
+        <v>7.4824710870121268E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>0.42234429692088504</v>
+        <v>0.42677414335286651</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-5.9504406678807284E-2</v>
+        <v>-5.6509514139852522E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1307,35 +1433,35 @@
       </c>
       <c r="R4">
         <f t="shared" si="10"/>
-        <v>1.4531249999999999E-2</v>
+        <v>1.4692708333333332E-2</v>
       </c>
       <c r="S4">
         <f t="shared" si="11"/>
-        <v>-1.08984375E-2</v>
+        <v>-1.0774652777777775E-2</v>
       </c>
       <c r="T4">
         <f t="shared" si="12"/>
-        <v>-9.0820312499999994E-4</v>
+        <v>-9.1829427083333325E-4</v>
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>-0.22493088140388751</v>
+        <v>-0.21061906987053858</v>
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>1.5935236305377594</v>
+        <v>1.591659818710518</v>
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
-        <v>9.4863565142118203E-3</v>
+        <v>8.4099910957810501E-3</v>
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
-        <v>0.4761220427029203</v>
+        <v>0.48028681050683647</v>
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>-6.7206126516521442E-2</v>
+        <v>-6.3554762211683033E-2</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1352,8 +1478,9 @@
       <c r="AD4">
         <v>5.3</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>29</v>
+      <c r="AE4" s="5">
+        <f t="shared" si="16"/>
+        <v>8.7208333333333332</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>61</v>
@@ -1376,8 +1503,39 @@
       <c r="AM4" t="s">
         <v>49</v>
       </c>
+      <c r="AO4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX4">
+        <f>AX2-0.375</f>
+        <v>45.625</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1385,8 +1543,8 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f>0.5*0.125</f>
-        <v>6.25E-2</v>
+        <f>((1+(3/90))*0.125)/2</f>
+        <v>6.458333333333334E-2</v>
       </c>
       <c r="D5">
         <f>-0.5/2</f>
@@ -1398,11 +1556,11 @@
       </c>
       <c r="F5">
         <f t="shared" si="5"/>
-        <v>-1.5625E-2</v>
+        <v>-1.6145833333333335E-2</v>
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
-        <v>-0.23046875</v>
+        <v>-0.2381510416666667</v>
       </c>
       <c r="H5">
         <f>(0.5*(1/8)^3)/12</f>
@@ -1417,23 +1575,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.28854635487546165</v>
+        <v>0.28466783718449529</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.1241659262558743</v>
+        <v>-2.1246279259654983</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>5.2036874319947406E-3</v>
+        <v>5.2335606319713502E-3</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>0.2820050551416548</v>
+        <v>0.29153199695326271</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-3.8307520948236952E-2</v>
+        <v>-3.9060854857703609E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1444,35 +1602,35 @@
       </c>
       <c r="R5">
         <f t="shared" si="10"/>
-        <v>4.84375E-3</v>
+        <v>5.0052083333333337E-3</v>
       </c>
       <c r="S5">
         <f t="shared" si="11"/>
-        <v>-1.2109375E-3</v>
+        <v>-1.2513020833333334E-3</v>
       </c>
       <c r="T5">
         <f t="shared" si="12"/>
-        <v>-1.7861328124999999E-2</v>
+        <v>-1.8456705729166668E-2</v>
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>0.27506911859611249</v>
+        <v>0.2727142634627947</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>-2.0314763694622409</v>
+        <v>-2.033340181289482</v>
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
-        <v>4.7289387503276379E-3</v>
+        <v>4.8032607382868598E-3</v>
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
-        <v>0.25793101498021792</v>
+        <v>0.26701800224632638</v>
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>-3.4924775899800573E-2</v>
+        <v>-3.581280618166597E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1489,38 +1647,66 @@
       <c r="AD5">
         <v>5.3</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>29</v>
+      <c r="AE5" s="5">
+        <f t="shared" si="16"/>
+        <v>2.9708333333333337</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AH5">
         <f>S16/R16</f>
-        <v>-0.52506911859611249</v>
+        <v>-0.5227142634627947</v>
       </c>
       <c r="AI5">
         <f>T16/R16</f>
-        <v>-1.6560236305377594</v>
+        <v>-1.654159818710518</v>
       </c>
       <c r="AJ5">
         <f>H16+X16</f>
-        <v>1.3363762734532507</v>
+        <v>1.3492192282281503</v>
       </c>
       <c r="AK5">
         <f>I16+W16</f>
-        <v>0.16635993034510801</v>
+        <v>0.1655263054633625</v>
       </c>
       <c r="AL5">
         <f>J16+Y16</f>
-        <v>-0.10545618452326581</v>
+        <v>-0.10329952861437716</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>0.21119845691233272</v>
+        <v>0.21266048149678249</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1745,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.65966783718449529</v>
       </c>
       <c r="L6" t="e">
         <f t="shared" si="1"/>
@@ -1567,7 +1753,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>6.79940086586984E-3</v>
       </c>
       <c r="N6" t="e">
         <f t="shared" si="8"/>
@@ -1598,7 +1784,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.6477142634627947</v>
       </c>
       <c r="V6" t="e">
         <f t="shared" si="4"/>
@@ -1606,7 +1792,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>6.555215110830479E-3</v>
       </c>
       <c r="X6" t="e">
         <f t="shared" si="14"/>
@@ -1631,8 +1817,9 @@
       <c r="AD6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>29</v>
+      <c r="AE6" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>61</v>
@@ -1640,8 +1827,35 @@
       <c r="AH6" t="s">
         <v>39</v>
       </c>
+      <c r="AO6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1649,11 +1863,11 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C15" si="16">0.125*0.125</f>
+        <f t="shared" ref="C7:C15" si="17">0.125*0.125</f>
         <v>1.5625E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="17">(1/16)+(1/8)/2</f>
+        <f t="shared" ref="D7:D10" si="18">(1/16)+(1/8)/2</f>
         <v>0.125</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1668,11 +1882,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:I15" si="18">((1/8)^4)/12</f>
+        <f t="shared" ref="H7:I15" si="19">((1/8)^4)/12</f>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J7">
@@ -1680,7 +1894,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.65966783718449529</v>
       </c>
       <c r="L7" t="e">
         <f t="shared" si="1"/>
@@ -1688,7 +1902,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>6.79940086586984E-3</v>
       </c>
       <c r="N7" t="e">
         <f t="shared" si="8"/>
@@ -1719,7 +1933,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.6477142634627947</v>
       </c>
       <c r="V7" t="e">
         <f t="shared" si="4"/>
@@ -1727,7 +1941,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>6.555215110830479E-3</v>
       </c>
       <c r="X7" t="e">
         <f t="shared" si="14"/>
@@ -1752,8 +1966,9 @@
       <c r="AD7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>29</v>
+      <c r="AE7" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>61</v>
@@ -1761,8 +1976,35 @@
       <c r="AH7">
         <v>2000</v>
       </c>
+      <c r="AO7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1770,11 +2012,11 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1789,11 +2031,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J8">
@@ -1801,7 +2043,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.65966783718449529</v>
       </c>
       <c r="L8" t="e">
         <f t="shared" si="1"/>
@@ -1809,7 +2051,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>6.79940086586984E-3</v>
       </c>
       <c r="N8" t="e">
         <f t="shared" si="8"/>
@@ -1840,7 +2082,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.6477142634627947</v>
       </c>
       <c r="V8" t="e">
         <f t="shared" si="4"/>
@@ -1848,7 +2090,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>6.555215110830479E-3</v>
       </c>
       <c r="X8" t="e">
         <f t="shared" si="14"/>
@@ -1873,22 +2115,50 @@
       <c r="AD8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>29</v>
+      <c r="AE8" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AG8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
+      <c r="AG8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AO8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1896,11 +2166,11 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1915,11 +2185,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J9">
@@ -1927,7 +2197,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.65966783718449529</v>
       </c>
       <c r="L9" t="e">
         <f t="shared" si="1"/>
@@ -1935,7 +2205,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>6.79940086586984E-3</v>
       </c>
       <c r="N9" t="e">
         <f t="shared" si="8"/>
@@ -1966,7 +2236,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.6477142634627947</v>
       </c>
       <c r="V9" t="e">
         <f t="shared" si="4"/>
@@ -1974,7 +2244,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>6.555215110830479E-3</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="14"/>
@@ -1999,8 +2269,9 @@
       <c r="AD9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>29</v>
+      <c r="AE9" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>61</v>
@@ -2017,8 +2288,35 @@
       <c r="AK9" t="s">
         <v>69</v>
       </c>
+      <c r="AO9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2026,11 +2324,11 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2045,11 +2343,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J10">
@@ -2057,7 +2355,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.65966783718449529</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
@@ -2065,7 +2363,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>6.79940086586984E-3</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" si="8"/>
@@ -2096,7 +2394,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.6477142634627947</v>
       </c>
       <c r="V10" t="e">
         <f t="shared" si="4"/>
@@ -2104,7 +2402,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>6.555215110830479E-3</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="14"/>
@@ -2129,8 +2427,9 @@
       <c r="AD10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE10" s="1" t="s">
-        <v>29</v>
+      <c r="AE10" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>61</v>
@@ -2142,15 +2441,42 @@
       <c r="AI10">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1">
-        <f>-1.5-(1/16)</f>
-        <v>-1.5625</v>
+      <c r="AJ10" s="5">
+        <f>-1.5-SQRT((1/16)^2+(3/180)^2)</f>
+        <v>-1.5646840612344168</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
+      <c r="AO10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2158,7 +2484,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2176,11 +2502,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J11">
@@ -2260,8 +2586,9 @@
       <c r="AD11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE11" s="1" t="s">
-        <v>29</v>
+      <c r="AE11" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>61</v>
@@ -2278,8 +2605,35 @@
       <c r="AK11" t="s">
         <v>71</v>
       </c>
+      <c r="AO11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2305,11 +2659,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J12">
@@ -2389,8 +2743,9 @@
       <c r="AD12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE12" s="1" t="s">
-        <v>29</v>
+      <c r="AE12" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>61</v>
@@ -2402,15 +2757,42 @@
       <c r="AI12">
         <v>-3.75</v>
       </c>
-      <c r="AJ12" s="1">
-        <f>-0.5-(1/16)</f>
-        <v>-0.5625</v>
+      <c r="AJ12" s="5">
+        <f>-0.5-SQRT((1/16)^2+(3/180)^2)</f>
+        <v>-0.56468406123441672</v>
       </c>
       <c r="AK12">
         <v>-3.75</v>
       </c>
+      <c r="AO12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2418,7 +2800,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2436,11 +2818,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J13">
@@ -2520,14 +2902,42 @@
       <c r="AD13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE13" s="1" t="s">
-        <v>29</v>
+      <c r="AE13" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="AO13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2535,7 +2945,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2553,11 +2963,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J14">
@@ -2637,17 +3047,42 @@
       <c r="AD14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE14" s="1" t="s">
-        <v>29</v>
+      <c r="AE14" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>74</v>
+      <c r="AO14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2655,7 +3090,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2673,11 +3108,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J15">
@@ -2757,28 +3192,56 @@
       <c r="AD15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>29</v>
+      <c r="AE15" s="5">
+        <f t="shared" si="16"/>
+        <v>0.71875</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="AO15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C5)</f>
-        <v>0.72694022962906291</v>
+        <v>0.73214856296239617</v>
       </c>
       <c r="F16" s="2">
         <f>SUM(F2:F5)</f>
-        <v>-0.39149101087906291</v>
+        <v>-0.39145628865684062</v>
       </c>
       <c r="G16" s="2">
         <f>SUM(G2:G5)</f>
-        <v>-1.1364504305544929</v>
+        <v>-1.1442545430984201</v>
       </c>
       <c r="H16" s="2">
         <f>SUM(H2:H5)</f>
@@ -2794,39 +3257,39 @@
       </c>
       <c r="M16" s="2">
         <f>SUM(M2:M5)</f>
-        <v>0.14133305458957135</v>
+        <v>0.14052685296028161</v>
       </c>
       <c r="N16" s="2">
         <f>SUM(N2:N5)</f>
-        <v>0.75067725108265337</v>
+        <v>0.76366428151601817</v>
       </c>
       <c r="O16" s="2">
         <f>SUM(O2:O5)</f>
-        <v>-0.10454809147352823</v>
+        <v>-0.10250059727701728</v>
       </c>
       <c r="R16" s="2">
         <f>SUM(R2:R5)</f>
-        <v>8.0184879277705512E-2</v>
+        <v>8.064060844437218E-2</v>
       </c>
       <c r="S16" s="2">
         <f>SUM(S2:S5)</f>
-        <v>-4.2102603887080516E-2</v>
+        <v>-4.2151996248191631E-2</v>
       </c>
       <c r="T16" s="2">
         <f>SUM(T2:T5)</f>
-        <v>-0.13278805489569784</v>
+        <v>-0.13339245424504856</v>
       </c>
       <c r="W16" s="2">
         <f>SUM(W2:W5)</f>
-        <v>0.14146509303077565</v>
+        <v>0.14063146814903013</v>
       </c>
       <c r="X16" s="2">
         <f>SUM(X2:X5)</f>
-        <v>0.75692265188760421</v>
+        <v>0.7697656066625036</v>
       </c>
       <c r="Y16" s="2">
         <f>SUM(Y2:Y5)</f>
-        <v>-0.10545618452326581</v>
+        <v>-0.10329952861437716</v>
       </c>
     </row>
     <row r="21" spans="17:22" x14ac:dyDescent="0.3">
@@ -2844,30 +3307,30 @@
       </c>
     </row>
     <row r="23" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
     </row>
     <row r="25" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/Section Properties.xlsx
+++ b/src/Section Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0962D3C9-D0E2-4814-9EB6-38E37EEE39E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0065ED-EB35-4F9E-B1ED-7925D0A9A273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1560" windowWidth="18624" windowHeight="12432" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
+    <workbookView xWindow="0" yWindow="2292" windowWidth="30720" windowHeight="12828" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <t>P=100, Our Goal</t>
   </si>
   <si>
-    <t xml:space="preserve">         Below values are assumed to be in the blue axis coord system below:</t>
+    <t xml:space="preserve">         Below values are assumed to be in the blue axis (auxillary axes) coord system below:</t>
   </si>
 </sst>
 </file>
@@ -856,9 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3812326-F393-4F18-B450-8E22F40B5680}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/src/Section Properties.xlsx
+++ b/src/Section Properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0065ED-EB35-4F9E-B1ED-7925D0A9A273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A3B8C9-5D73-46EB-8F19-C3312B698126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2292" windowWidth="30720" windowHeight="12828" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
   </bookViews>
@@ -856,7 +856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3812326-F393-4F18-B450-8E22F40B5680}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1060,23 +1062,23 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
-        <v>0.56591783718449529</v>
+        <v>0.56979635487546165</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
-        <v>-0.3121279259654981</v>
+        <v>-0.31166592625587453</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>7.5061640260213336E-2</v>
+        <v>7.6094035788131953E-2</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>2.2833713008013311E-2</v>
+        <v>2.2766167872405988E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-4.1399709559518036E-2</v>
+        <v>-4.1621744231128535E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
@@ -1099,23 +1101,23 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
-        <v>0.5539642634627947</v>
+        <v>0.55631911859611249</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
-        <v>-0.22084018128948202</v>
+        <v>-0.21897636946224064</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>7.1924157467314828E-2</v>
+        <v>7.253694415208331E-2</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>1.143055914186827E-2</v>
+        <v>1.1238433683483684E-2</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-2.8672867586957335E-2</v>
+        <v>-2.8551736137330561E-2</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1174,7 +1176,7 @@
       </c>
       <c r="AT2">
         <f>-AI3</f>
-        <v>1.5628720740345019</v>
+        <v>1.5633340737441255</v>
       </c>
       <c r="AU2" t="s">
         <v>62</v>
@@ -1197,55 +1199,56 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f>((2*SQRT(1+3.75^2)+(6/180))*0.0625)/2</f>
-        <v>0.24360689629572954</v>
+        <f>SQRT(1+3.75^2)*0.0625</f>
+        <v>0.24256522962906288</v>
       </c>
       <c r="D3">
         <f>SQRT(1+3.75^2)/2*SIN(ATAN(1/3.75))-1.5</f>
         <v>-1</v>
       </c>
       <c r="E3">
-        <f>((-SQRT(1+3.75^2)+(3/180))/2)*COS(ATAN(1/3.75))</f>
-        <v>-1.8669480421699898</v>
+        <f>(-SQRT(1+3.75^2)/2)*COS(ATAN(1/3.75))</f>
+        <v>-1.875</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F15" si="5">C3*D3</f>
-        <v>-0.24360689629572954</v>
+        <v>-0.24256522962906288</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G15" si="6">C3*E3</f>
-        <v>-0.45480141809842001</v>
+        <v>-0.45480980555449291</v>
       </c>
       <c r="H3">
-        <f>((1/16)*(SQRT(1+3.75^2)^3))/12</f>
-        <v>0.3044698976073133</v>
+        <f>(((1/16)*(SQRT(1+3.75^2)))/24)*((1/16)^2+(SQRT(1+3.75^2))^2)+(((1/16)*(SQRT(1+3.75^2)))/24)*((1/16)^2-(SQRT(1+3.75^2))^2)*COS(2*ATAN(1/3.75))</f>
+        <v>2.028748701139621E-2</v>
       </c>
       <c r="I3">
-        <f>(SQRT(1+3.75^2)*(1/16)^3)/12</f>
-        <v>7.8960035686543906E-5</v>
+        <f>(((1/16)*(SQRT(1+3.75^2)))/24)*((1/16)^2+(SQRT(1+3.75^2))^2)-(((1/16)*(SQRT(1+3.75^2)))/24)*((1/16)^2-(SQRT(1+3.75^2))^2)*COS(2*ATAN(1/3.75))</f>
+        <v>0.28426137063160367</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <f>(((1/16)*(SQRT(1+3.75^2)))/24)*((1/16)^2-(SQRT(1+3.75^2))^2)*SIN(2*ATAN(1/3.75))</f>
+        <v>-7.5781976158911218E-2</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.46533216281550471</v>
+        <v>-0.46145364512453835</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-0.30407596813548787</v>
+        <v>-0.31166592625587453</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
-        <v>5.2749180981084789E-2</v>
+        <v>5.1651710612609501E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
-        <v>2.252442820187571E-2</v>
+        <v>2.3561731147707529E-2</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
-        <v>3.4469481280056884E-2</v>
+        <v>3.4885580384644552E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1256,35 +1259,35 @@
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R15" si="10">Q3*C3</f>
-        <v>3.1059879277705517E-2</v>
+        <v>3.0927066777705518E-2</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S15" si="11">R3*D3</f>
-        <v>-3.1059879277705517E-2</v>
+        <v>-3.0927066777705518E-2</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T15" si="12">R3*E3</f>
-        <v>-5.7987180807548548E-2</v>
+        <v>-5.7988250208197846E-2</v>
       </c>
       <c r="U3">
         <f t="shared" si="3"/>
-        <v>-0.4772857365372053</v>
+        <v>-0.47493088140388751</v>
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
-        <v>-0.21278822345947179</v>
+        <v>-0.21897636946224064</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
-        <v>5.5494058847647389E-2</v>
+        <v>5.4712853614152887E-2</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
-        <v>1.1030234767472552E-2</v>
+        <v>1.163116052098225E-2</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
-        <v>2.4740907365929168E-2</v>
+        <v>2.5226454030386754E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1303,34 +1306,34 @@
       </c>
       <c r="AE3" s="5">
         <f t="shared" ref="AE3:AE15" si="16">C3*$AX$2</f>
-        <v>11.205917229603559</v>
+        <v>11.158000562936893</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AH3">
         <f>F16/C16</f>
-        <v>-0.53466783718449529</v>
+        <v>-0.53854635487546165</v>
       </c>
       <c r="AI3">
         <f>G16/C16</f>
-        <v>-1.5628720740345019</v>
+        <v>-1.5633340737441255</v>
       </c>
       <c r="AJ3">
         <f>H16+N16</f>
-        <v>1.3431179030816649</v>
+        <v>1.0459484620523829</v>
       </c>
       <c r="AK3">
         <f>I16+M16</f>
-        <v>0.16542169027461398</v>
+        <v>0.45041030249982084</v>
       </c>
       <c r="AL3">
         <f>J16+O16</f>
-        <v>-0.10250059727701728</v>
+        <v>-0.18033006763243944</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.21167446132371889</v>
+        <v>0.43858702989991594</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -1349,7 +1352,7 @@
       </c>
       <c r="AT3">
         <f>-1.875-AI3</f>
-        <v>-0.3121279259654981</v>
+        <v>-0.31166592625587453</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>
@@ -1372,12 +1375,12 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f>((3+(3/90))*0.125)/2</f>
-        <v>0.18958333333333333</v>
+        <f>1.5*0.125</f>
+        <v>0.1875</v>
       </c>
       <c r="D4">
-        <f>(-1.5+(3/90))/2</f>
-        <v>-0.73333333333333328</v>
+        <f>(-1.5)/2</f>
+        <v>-0.75</v>
       </c>
       <c r="E4">
         <f>-1/16</f>
@@ -1385,11 +1388,11 @@
       </c>
       <c r="F4">
         <f t="shared" si="5"/>
-        <v>-0.13902777777777775</v>
+        <v>-0.140625</v>
       </c>
       <c r="G4">
         <f t="shared" si="6"/>
-        <v>-1.1848958333333333E-2</v>
+        <v>-1.171875E-2</v>
       </c>
       <c r="H4">
         <f>(1.5*(1/8)^3)/12</f>
@@ -1404,23 +1407,23 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-0.19866549614883799</v>
+        <v>-0.21145364512453835</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.5003720740345019</v>
+        <v>1.5008340737441255</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>7.4824710870121268E-3</v>
+        <v>8.3836207568351619E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>0.42677414335286651</v>
+        <v>0.42234429692088504</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-5.6509514139852522E-2</v>
+        <v>-5.9504406678807284E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1431,35 +1434,35 @@
       </c>
       <c r="R4">
         <f t="shared" si="10"/>
-        <v>1.4692708333333332E-2</v>
+        <v>1.4531249999999999E-2</v>
       </c>
       <c r="S4">
         <f t="shared" si="11"/>
-        <v>-1.0774652777777775E-2</v>
+        <v>-1.08984375E-2</v>
       </c>
       <c r="T4">
         <f t="shared" si="12"/>
-        <v>-9.1829427083333325E-4</v>
+        <v>-9.0820312499999994E-4</v>
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>-0.21061906987053858</v>
+        <v>-0.22493088140388751</v>
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>1.591659818710518</v>
+        <v>1.5935236305377594</v>
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
-        <v>8.4099910957810501E-3</v>
+        <v>9.4863565142118203E-3</v>
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
-        <v>0.48028681050683647</v>
+        <v>0.4761220427029203</v>
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>-6.3554762211683033E-2</v>
+        <v>-6.7206126516521442E-2</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1478,7 +1481,7 @@
       </c>
       <c r="AE4" s="5">
         <f t="shared" si="16"/>
-        <v>8.7208333333333332</v>
+        <v>8.625</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>61</v>
@@ -1541,8 +1544,8 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f>((1+(3/90))*0.125)/2</f>
-        <v>6.458333333333334E-2</v>
+        <f>0.5*0.125</f>
+        <v>6.25E-2</v>
       </c>
       <c r="D5">
         <f>-0.5/2</f>
@@ -1554,11 +1557,11 @@
       </c>
       <c r="F5">
         <f t="shared" si="5"/>
-        <v>-1.6145833333333335E-2</v>
+        <v>-1.5625E-2</v>
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
-        <v>-0.2381510416666667</v>
+        <v>-0.23046875</v>
       </c>
       <c r="H5">
         <f>(0.5*(1/8)^3)/12</f>
@@ -1573,23 +1576,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.28466783718449529</v>
+        <v>0.28854635487546165</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.1246279259654983</v>
+        <v>-2.1241659262558743</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>5.2335606319713502E-3</v>
+        <v>5.2036874319947406E-3</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>0.29153199695326271</v>
+        <v>0.2820050551416548</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-3.9060854857703609E-2</v>
+        <v>-3.8307520948236952E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1600,35 +1603,35 @@
       </c>
       <c r="R5">
         <f t="shared" si="10"/>
-        <v>5.0052083333333337E-3</v>
+        <v>4.84375E-3</v>
       </c>
       <c r="S5">
         <f t="shared" si="11"/>
-        <v>-1.2513020833333334E-3</v>
+        <v>-1.2109375E-3</v>
       </c>
       <c r="T5">
         <f t="shared" si="12"/>
-        <v>-1.8456705729166668E-2</v>
+        <v>-1.7861328124999999E-2</v>
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>0.2727142634627947</v>
+        <v>0.27506911859611249</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>-2.033340181289482</v>
+        <v>-2.0314763694622409</v>
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
-        <v>4.8032607382868598E-3</v>
+        <v>4.7289387503276379E-3</v>
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
-        <v>0.26701800224632638</v>
+        <v>0.25793101498021792</v>
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>-3.581280618166597E-2</v>
+        <v>-3.4924775899800573E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1647,34 +1650,34 @@
       </c>
       <c r="AE5" s="5">
         <f t="shared" si="16"/>
-        <v>2.9708333333333337</v>
+        <v>2.875</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AH5">
         <f>S16/R16</f>
-        <v>-0.5227142634627947</v>
+        <v>-0.52506911859611249</v>
       </c>
       <c r="AI5">
         <f>T16/R16</f>
-        <v>-1.654159818710518</v>
+        <v>-1.6560236305377594</v>
       </c>
       <c r="AJ5">
         <f>H16+X16</f>
-        <v>1.3492192282281503</v>
+        <v>1.0521938628573337</v>
       </c>
       <c r="AK5">
         <f>I16+W16</f>
-        <v>0.1655263054633625</v>
+        <v>0.45054234094102513</v>
       </c>
       <c r="AL5">
         <f>J16+Y16</f>
-        <v>-0.10329952861437716</v>
+        <v>-0.18123816068217702</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>0.21266048149678249</v>
+        <v>0.44121061520806448</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1743,7 +1746,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.65966783718449529</v>
+        <v>0.66354635487546165</v>
       </c>
       <c r="L6" t="e">
         <f t="shared" si="1"/>
@@ -1751,7 +1754,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>6.79940086586984E-3</v>
+        <v>6.8795900791955014E-3</v>
       </c>
       <c r="N6" t="e">
         <f t="shared" si="8"/>
@@ -1782,7 +1785,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.6477142634627947</v>
+        <v>0.65006911859611249</v>
       </c>
       <c r="V6" t="e">
         <f t="shared" si="4"/>
@@ -1790,7 +1793,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>6.555215110830479E-3</v>
+        <v>6.602966546130103E-3</v>
       </c>
       <c r="X6" t="e">
         <f t="shared" si="14"/>
@@ -1892,7 +1895,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.65966783718449529</v>
+        <v>0.66354635487546165</v>
       </c>
       <c r="L7" t="e">
         <f t="shared" si="1"/>
@@ -1900,7 +1903,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>6.79940086586984E-3</v>
+        <v>6.8795900791955014E-3</v>
       </c>
       <c r="N7" t="e">
         <f t="shared" si="8"/>
@@ -1931,7 +1934,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>0.6477142634627947</v>
+        <v>0.65006911859611249</v>
       </c>
       <c r="V7" t="e">
         <f t="shared" si="4"/>
@@ -1939,7 +1942,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>6.555215110830479E-3</v>
+        <v>6.602966546130103E-3</v>
       </c>
       <c r="X7" t="e">
         <f t="shared" si="14"/>
@@ -2041,7 +2044,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.65966783718449529</v>
+        <v>0.66354635487546165</v>
       </c>
       <c r="L8" t="e">
         <f t="shared" si="1"/>
@@ -2049,7 +2052,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>6.79940086586984E-3</v>
+        <v>6.8795900791955014E-3</v>
       </c>
       <c r="N8" t="e">
         <f t="shared" si="8"/>
@@ -2080,7 +2083,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.6477142634627947</v>
+        <v>0.65006911859611249</v>
       </c>
       <c r="V8" t="e">
         <f t="shared" si="4"/>
@@ -2088,7 +2091,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>6.555215110830479E-3</v>
+        <v>6.602966546130103E-3</v>
       </c>
       <c r="X8" t="e">
         <f t="shared" si="14"/>
@@ -2195,7 +2198,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.65966783718449529</v>
+        <v>0.66354635487546165</v>
       </c>
       <c r="L9" t="e">
         <f t="shared" si="1"/>
@@ -2203,7 +2206,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>6.79940086586984E-3</v>
+        <v>6.8795900791955014E-3</v>
       </c>
       <c r="N9" t="e">
         <f t="shared" si="8"/>
@@ -2234,7 +2237,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.6477142634627947</v>
+        <v>0.65006911859611249</v>
       </c>
       <c r="V9" t="e">
         <f t="shared" si="4"/>
@@ -2242,7 +2245,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>6.555215110830479E-3</v>
+        <v>6.602966546130103E-3</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="14"/>
@@ -2353,7 +2356,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.65966783718449529</v>
+        <v>0.66354635487546165</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
@@ -2361,7 +2364,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>6.79940086586984E-3</v>
+        <v>6.8795900791955014E-3</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" si="8"/>
@@ -2392,7 +2395,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.6477142634627947</v>
+        <v>0.65006911859611249</v>
       </c>
       <c r="V10" t="e">
         <f t="shared" si="4"/>
@@ -2400,7 +2403,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>6.555215110830479E-3</v>
+        <v>6.602966546130103E-3</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="14"/>
@@ -3231,63 +3234,63 @@
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C5)</f>
-        <v>0.73214856296239617</v>
+        <v>0.72694022962906291</v>
       </c>
       <c r="F16" s="2">
         <f>SUM(F2:F5)</f>
-        <v>-0.39145628865684062</v>
+        <v>-0.39149101087906291</v>
       </c>
       <c r="G16" s="2">
         <f>SUM(G2:G5)</f>
-        <v>-1.1442545430984201</v>
+        <v>-1.1364504305544929</v>
       </c>
       <c r="H16" s="2">
         <f>SUM(H2:H5)</f>
-        <v>0.57945362156564661</v>
+        <v>0.29527121096972953</v>
       </c>
       <c r="I16" s="2">
         <f>SUM(I2:I5)</f>
-        <v>2.4894837314332376E-2</v>
+        <v>0.30907724791024949</v>
       </c>
       <c r="J16" s="2">
         <f>SUM(J2:J5)</f>
-        <v>0</v>
+        <v>-7.5781976158911218E-2</v>
       </c>
       <c r="M16" s="2">
         <f>SUM(M2:M5)</f>
-        <v>0.14052685296028161</v>
+        <v>0.14133305458957135</v>
       </c>
       <c r="N16" s="2">
         <f>SUM(N2:N5)</f>
-        <v>0.76366428151601817</v>
+        <v>0.75067725108265337</v>
       </c>
       <c r="O16" s="2">
         <f>SUM(O2:O5)</f>
-        <v>-0.10250059727701728</v>
+        <v>-0.10454809147352823</v>
       </c>
       <c r="R16" s="2">
         <f>SUM(R2:R5)</f>
-        <v>8.064060844437218E-2</v>
+        <v>8.0184879277705512E-2</v>
       </c>
       <c r="S16" s="2">
         <f>SUM(S2:S5)</f>
-        <v>-4.2151996248191631E-2</v>
+        <v>-4.2102603887080516E-2</v>
       </c>
       <c r="T16" s="2">
         <f>SUM(T2:T5)</f>
-        <v>-0.13339245424504856</v>
+        <v>-0.13278805489569784</v>
       </c>
       <c r="W16" s="2">
         <f>SUM(W2:W5)</f>
-        <v>0.14063146814903013</v>
+        <v>0.14146509303077565</v>
       </c>
       <c r="X16" s="2">
         <f>SUM(X2:X5)</f>
-        <v>0.7697656066625036</v>
+        <v>0.75692265188760421</v>
       </c>
       <c r="Y16" s="2">
         <f>SUM(Y2:Y5)</f>
-        <v>-0.10329952861437716</v>
+        <v>-0.10545618452326581</v>
       </c>
     </row>
     <row r="21" spans="17:22" x14ac:dyDescent="0.3">

--- a/src/Section Properties.xlsx
+++ b/src/Section Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEFFBFA-4DA6-445F-AF40-8AFD2D30156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A3B8C9-5D73-46EB-8F19-C3312B698126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13584" yWindow="1728" windowWidth="19464" windowHeight="11616" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
+    <workbookView xWindow="0" yWindow="2292" windowWidth="30720" windowHeight="12828" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="83">
   <si>
     <t>Name of element</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>P=100, Our Goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Below values are assumed to be in the blue axis (auxillary axes) coord system below:</t>
   </si>
 </sst>
 </file>
@@ -339,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -348,6 +351,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3812326-F393-4F18-B450-8E22F40B5680}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1054,23 +1062,23 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
-        <v>0.56591783718449529</v>
+        <v>0.56979635487546165</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
-        <v>-0.3121279259654981</v>
+        <v>-0.31166592625587453</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>7.5061640260213336E-2</v>
+        <v>7.6094035788131953E-2</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>2.2833713008013311E-2</v>
+        <v>2.2766167872405988E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-4.1399709559518036E-2</v>
+        <v>-4.1621744231128535E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
@@ -1093,23 +1101,23 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
-        <v>0.5539642634627947</v>
+        <v>0.55631911859611249</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
-        <v>-0.22084018128948202</v>
+        <v>-0.21897636946224064</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>7.1924157467314828E-2</v>
+        <v>7.253694415208331E-2</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>1.143055914186827E-2</v>
+        <v>1.1238433683483684E-2</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-2.8672867586957335E-2</v>
+        <v>-2.8551736137330561E-2</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1168,7 +1176,7 @@
       </c>
       <c r="AT2">
         <f>-AI3</f>
-        <v>1.5628720740345019</v>
+        <v>1.5633340737441255</v>
       </c>
       <c r="AU2" t="s">
         <v>62</v>
@@ -1191,55 +1199,56 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f>((2*SQRT(1+3.75^2)+(6/180))*0.0625)/2</f>
-        <v>0.24360689629572954</v>
+        <f>SQRT(1+3.75^2)*0.0625</f>
+        <v>0.24256522962906288</v>
       </c>
       <c r="D3">
         <f>SQRT(1+3.75^2)/2*SIN(ATAN(1/3.75))-1.5</f>
         <v>-1</v>
       </c>
       <c r="E3">
-        <f>((-SQRT(1+3.75^2)+(3/180))/2)*COS(ATAN(1/3.75))</f>
-        <v>-1.8669480421699898</v>
+        <f>(-SQRT(1+3.75^2)/2)*COS(ATAN(1/3.75))</f>
+        <v>-1.875</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F15" si="5">C3*D3</f>
-        <v>-0.24360689629572954</v>
+        <v>-0.24256522962906288</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G15" si="6">C3*E3</f>
-        <v>-0.45480141809842001</v>
+        <v>-0.45480980555449291</v>
       </c>
       <c r="H3">
-        <f>((1/16)*(SQRT(1+3.75^2)^3))/12</f>
-        <v>0.3044698976073133</v>
+        <f>(((1/16)*(SQRT(1+3.75^2)))/24)*((1/16)^2+(SQRT(1+3.75^2))^2)+(((1/16)*(SQRT(1+3.75^2)))/24)*((1/16)^2-(SQRT(1+3.75^2))^2)*COS(2*ATAN(1/3.75))</f>
+        <v>2.028748701139621E-2</v>
       </c>
       <c r="I3">
-        <f>(SQRT(1+3.75^2)*(1/16)^3)/12</f>
-        <v>7.8960035686543906E-5</v>
+        <f>(((1/16)*(SQRT(1+3.75^2)))/24)*((1/16)^2+(SQRT(1+3.75^2))^2)-(((1/16)*(SQRT(1+3.75^2)))/24)*((1/16)^2-(SQRT(1+3.75^2))^2)*COS(2*ATAN(1/3.75))</f>
+        <v>0.28426137063160367</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <f>(((1/16)*(SQRT(1+3.75^2)))/24)*((1/16)^2-(SQRT(1+3.75^2))^2)*SIN(2*ATAN(1/3.75))</f>
+        <v>-7.5781976158911218E-2</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.46533216281550471</v>
+        <v>-0.46145364512453835</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-0.30407596813548787</v>
+        <v>-0.31166592625587453</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
-        <v>5.2749180981084789E-2</v>
+        <v>5.1651710612609501E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
-        <v>2.252442820187571E-2</v>
+        <v>2.3561731147707529E-2</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
-        <v>3.4469481280056884E-2</v>
+        <v>3.4885580384644552E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1250,35 +1259,35 @@
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R15" si="10">Q3*C3</f>
-        <v>3.1059879277705517E-2</v>
+        <v>3.0927066777705518E-2</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S15" si="11">R3*D3</f>
-        <v>-3.1059879277705517E-2</v>
+        <v>-3.0927066777705518E-2</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T15" si="12">R3*E3</f>
-        <v>-5.7987180807548548E-2</v>
+        <v>-5.7988250208197846E-2</v>
       </c>
       <c r="U3">
         <f t="shared" si="3"/>
-        <v>-0.4772857365372053</v>
+        <v>-0.47493088140388751</v>
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
-        <v>-0.21278822345947179</v>
+        <v>-0.21897636946224064</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
-        <v>5.5494058847647389E-2</v>
+        <v>5.4712853614152887E-2</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
-        <v>1.1030234767472552E-2</v>
+        <v>1.163116052098225E-2</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
-        <v>2.4740907365929168E-2</v>
+        <v>2.5226454030386754E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1297,34 +1306,34 @@
       </c>
       <c r="AE3" s="5">
         <f t="shared" ref="AE3:AE15" si="16">C3*$AX$2</f>
-        <v>11.205917229603559</v>
+        <v>11.158000562936893</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AH3">
         <f>F16/C16</f>
-        <v>-0.53466783718449529</v>
+        <v>-0.53854635487546165</v>
       </c>
       <c r="AI3">
         <f>G16/C16</f>
-        <v>-1.5628720740345019</v>
+        <v>-1.5633340737441255</v>
       </c>
       <c r="AJ3">
         <f>H16+N16</f>
-        <v>1.3431179030816649</v>
+        <v>1.0459484620523829</v>
       </c>
       <c r="AK3">
         <f>I16+M16</f>
-        <v>0.16542169027461398</v>
+        <v>0.45041030249982084</v>
       </c>
       <c r="AL3">
         <f>J16+O16</f>
-        <v>-0.10250059727701728</v>
+        <v>-0.18033006763243944</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.21167446132371889</v>
+        <v>0.43858702989991594</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -1343,7 +1352,7 @@
       </c>
       <c r="AT3">
         <f>-1.875-AI3</f>
-        <v>-0.3121279259654981</v>
+        <v>-0.31166592625587453</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>
@@ -1366,12 +1375,12 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f>((3+(3/90))*0.125)/2</f>
-        <v>0.18958333333333333</v>
+        <f>1.5*0.125</f>
+        <v>0.1875</v>
       </c>
       <c r="D4">
-        <f>(-1.5+(3/90))/2</f>
-        <v>-0.73333333333333328</v>
+        <f>(-1.5)/2</f>
+        <v>-0.75</v>
       </c>
       <c r="E4">
         <f>-1/16</f>
@@ -1379,11 +1388,11 @@
       </c>
       <c r="F4">
         <f t="shared" si="5"/>
-        <v>-0.13902777777777775</v>
+        <v>-0.140625</v>
       </c>
       <c r="G4">
         <f t="shared" si="6"/>
-        <v>-1.1848958333333333E-2</v>
+        <v>-1.171875E-2</v>
       </c>
       <c r="H4">
         <f>(1.5*(1/8)^3)/12</f>
@@ -1398,23 +1407,23 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-0.19866549614883799</v>
+        <v>-0.21145364512453835</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.5003720740345019</v>
+        <v>1.5008340737441255</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>7.4824710870121268E-3</v>
+        <v>8.3836207568351619E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>0.42677414335286651</v>
+        <v>0.42234429692088504</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-5.6509514139852522E-2</v>
+        <v>-5.9504406678807284E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1425,35 +1434,35 @@
       </c>
       <c r="R4">
         <f t="shared" si="10"/>
-        <v>1.4692708333333332E-2</v>
+        <v>1.4531249999999999E-2</v>
       </c>
       <c r="S4">
         <f t="shared" si="11"/>
-        <v>-1.0774652777777775E-2</v>
+        <v>-1.08984375E-2</v>
       </c>
       <c r="T4">
         <f t="shared" si="12"/>
-        <v>-9.1829427083333325E-4</v>
+        <v>-9.0820312499999994E-4</v>
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>-0.21061906987053858</v>
+        <v>-0.22493088140388751</v>
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>1.591659818710518</v>
+        <v>1.5935236305377594</v>
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
-        <v>8.4099910957810501E-3</v>
+        <v>9.4863565142118203E-3</v>
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
-        <v>0.48028681050683647</v>
+        <v>0.4761220427029203</v>
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>-6.3554762211683033E-2</v>
+        <v>-6.7206126516521442E-2</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1472,7 +1481,7 @@
       </c>
       <c r="AE4" s="5">
         <f t="shared" si="16"/>
-        <v>8.7208333333333332</v>
+        <v>8.625</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>61</v>
@@ -1535,8 +1544,8 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f>((1+(3/90))*0.125)/2</f>
-        <v>6.458333333333334E-2</v>
+        <f>0.5*0.125</f>
+        <v>6.25E-2</v>
       </c>
       <c r="D5">
         <f>-0.5/2</f>
@@ -1548,11 +1557,11 @@
       </c>
       <c r="F5">
         <f t="shared" si="5"/>
-        <v>-1.6145833333333335E-2</v>
+        <v>-1.5625E-2</v>
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
-        <v>-0.2381510416666667</v>
+        <v>-0.23046875</v>
       </c>
       <c r="H5">
         <f>(0.5*(1/8)^3)/12</f>
@@ -1567,23 +1576,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.28466783718449529</v>
+        <v>0.28854635487546165</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.1246279259654983</v>
+        <v>-2.1241659262558743</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>5.2335606319713502E-3</v>
+        <v>5.2036874319947406E-3</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>0.29153199695326271</v>
+        <v>0.2820050551416548</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-3.9060854857703609E-2</v>
+        <v>-3.8307520948236952E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1594,35 +1603,35 @@
       </c>
       <c r="R5">
         <f t="shared" si="10"/>
-        <v>5.0052083333333337E-3</v>
+        <v>4.84375E-3</v>
       </c>
       <c r="S5">
         <f t="shared" si="11"/>
-        <v>-1.2513020833333334E-3</v>
+        <v>-1.2109375E-3</v>
       </c>
       <c r="T5">
         <f t="shared" si="12"/>
-        <v>-1.8456705729166668E-2</v>
+        <v>-1.7861328124999999E-2</v>
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>0.2727142634627947</v>
+        <v>0.27506911859611249</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>-2.033340181289482</v>
+        <v>-2.0314763694622409</v>
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
-        <v>4.8032607382868598E-3</v>
+        <v>4.7289387503276379E-3</v>
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
-        <v>0.26701800224632638</v>
+        <v>0.25793101498021792</v>
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>-3.581280618166597E-2</v>
+        <v>-3.4924775899800573E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1641,34 +1650,34 @@
       </c>
       <c r="AE5" s="5">
         <f t="shared" si="16"/>
-        <v>2.9708333333333337</v>
+        <v>2.875</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AH5">
         <f>S16/R16</f>
-        <v>-0.5227142634627947</v>
+        <v>-0.52506911859611249</v>
       </c>
       <c r="AI5">
         <f>T16/R16</f>
-        <v>-1.654159818710518</v>
+        <v>-1.6560236305377594</v>
       </c>
       <c r="AJ5">
         <f>H16+X16</f>
-        <v>1.3492192282281503</v>
+        <v>1.0521938628573337</v>
       </c>
       <c r="AK5">
         <f>I16+W16</f>
-        <v>0.1655263054633625</v>
+        <v>0.45054234094102513</v>
       </c>
       <c r="AL5">
         <f>J16+Y16</f>
-        <v>-0.10329952861437716</v>
+        <v>-0.18123816068217702</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>0.21266048149678249</v>
+        <v>0.44121061520806448</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1737,7 +1746,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.65966783718449529</v>
+        <v>0.66354635487546165</v>
       </c>
       <c r="L6" t="e">
         <f t="shared" si="1"/>
@@ -1745,7 +1754,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>6.79940086586984E-3</v>
+        <v>6.8795900791955014E-3</v>
       </c>
       <c r="N6" t="e">
         <f t="shared" si="8"/>
@@ -1776,7 +1785,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.6477142634627947</v>
+        <v>0.65006911859611249</v>
       </c>
       <c r="V6" t="e">
         <f t="shared" si="4"/>
@@ -1784,7 +1793,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>6.555215110830479E-3</v>
+        <v>6.602966546130103E-3</v>
       </c>
       <c r="X6" t="e">
         <f t="shared" si="14"/>
@@ -1886,7 +1895,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.65966783718449529</v>
+        <v>0.66354635487546165</v>
       </c>
       <c r="L7" t="e">
         <f t="shared" si="1"/>
@@ -1894,7 +1903,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>6.79940086586984E-3</v>
+        <v>6.8795900791955014E-3</v>
       </c>
       <c r="N7" t="e">
         <f t="shared" si="8"/>
@@ -1925,7 +1934,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>0.6477142634627947</v>
+        <v>0.65006911859611249</v>
       </c>
       <c r="V7" t="e">
         <f t="shared" si="4"/>
@@ -1933,7 +1942,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>6.555215110830479E-3</v>
+        <v>6.602966546130103E-3</v>
       </c>
       <c r="X7" t="e">
         <f t="shared" si="14"/>
@@ -2035,7 +2044,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.65966783718449529</v>
+        <v>0.66354635487546165</v>
       </c>
       <c r="L8" t="e">
         <f t="shared" si="1"/>
@@ -2043,7 +2052,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>6.79940086586984E-3</v>
+        <v>6.8795900791955014E-3</v>
       </c>
       <c r="N8" t="e">
         <f t="shared" si="8"/>
@@ -2074,7 +2083,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.6477142634627947</v>
+        <v>0.65006911859611249</v>
       </c>
       <c r="V8" t="e">
         <f t="shared" si="4"/>
@@ -2082,7 +2091,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>6.555215110830479E-3</v>
+        <v>6.602966546130103E-3</v>
       </c>
       <c r="X8" t="e">
         <f t="shared" si="14"/>
@@ -2114,6 +2123,14 @@
       <c r="AF8" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="AG8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
       <c r="AO8" t="s">
         <v>62</v>
       </c>
@@ -2181,7 +2198,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.65966783718449529</v>
+        <v>0.66354635487546165</v>
       </c>
       <c r="L9" t="e">
         <f t="shared" si="1"/>
@@ -2189,7 +2206,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>6.79940086586984E-3</v>
+        <v>6.8795900791955014E-3</v>
       </c>
       <c r="N9" t="e">
         <f t="shared" si="8"/>
@@ -2220,7 +2237,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.6477142634627947</v>
+        <v>0.65006911859611249</v>
       </c>
       <c r="V9" t="e">
         <f t="shared" si="4"/>
@@ -2228,7 +2245,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>6.555215110830479E-3</v>
+        <v>6.602966546130103E-3</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="14"/>
@@ -2339,7 +2356,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.65966783718449529</v>
+        <v>0.66354635487546165</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
@@ -2347,7 +2364,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>6.79940086586984E-3</v>
+        <v>6.8795900791955014E-3</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" si="8"/>
@@ -2378,7 +2395,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.6477142634627947</v>
+        <v>0.65006911859611249</v>
       </c>
       <c r="V10" t="e">
         <f t="shared" si="4"/>
@@ -2386,7 +2403,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>6.555215110830479E-3</v>
+        <v>6.602966546130103E-3</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="14"/>
@@ -3217,63 +3234,63 @@
       </c>
       <c r="C16" s="2">
         <f>SUM(C2:C5)</f>
-        <v>0.73214856296239617</v>
+        <v>0.72694022962906291</v>
       </c>
       <c r="F16" s="2">
         <f>SUM(F2:F5)</f>
-        <v>-0.39145628865684062</v>
+        <v>-0.39149101087906291</v>
       </c>
       <c r="G16" s="2">
         <f>SUM(G2:G5)</f>
-        <v>-1.1442545430984201</v>
+        <v>-1.1364504305544929</v>
       </c>
       <c r="H16" s="2">
         <f>SUM(H2:H5)</f>
-        <v>0.57945362156564661</v>
+        <v>0.29527121096972953</v>
       </c>
       <c r="I16" s="2">
         <f>SUM(I2:I5)</f>
-        <v>2.4894837314332376E-2</v>
+        <v>0.30907724791024949</v>
       </c>
       <c r="J16" s="2">
         <f>SUM(J2:J5)</f>
-        <v>0</v>
+        <v>-7.5781976158911218E-2</v>
       </c>
       <c r="M16" s="2">
         <f>SUM(M2:M5)</f>
-        <v>0.14052685296028161</v>
+        <v>0.14133305458957135</v>
       </c>
       <c r="N16" s="2">
         <f>SUM(N2:N5)</f>
-        <v>0.76366428151601817</v>
+        <v>0.75067725108265337</v>
       </c>
       <c r="O16" s="2">
         <f>SUM(O2:O5)</f>
-        <v>-0.10250059727701728</v>
+        <v>-0.10454809147352823</v>
       </c>
       <c r="R16" s="2">
         <f>SUM(R2:R5)</f>
-        <v>8.064060844437218E-2</v>
+        <v>8.0184879277705512E-2</v>
       </c>
       <c r="S16" s="2">
         <f>SUM(S2:S5)</f>
-        <v>-4.2151996248191631E-2</v>
+        <v>-4.2102603887080516E-2</v>
       </c>
       <c r="T16" s="2">
         <f>SUM(T2:T5)</f>
-        <v>-0.13339245424504856</v>
+        <v>-0.13278805489569784</v>
       </c>
       <c r="W16" s="2">
         <f>SUM(W2:W5)</f>
-        <v>0.14063146814903013</v>
+        <v>0.14146509303077565</v>
       </c>
       <c r="X16" s="2">
         <f>SUM(X2:X5)</f>
-        <v>0.7697656066625036</v>
+        <v>0.75692265188760421</v>
       </c>
       <c r="Y16" s="2">
         <f>SUM(Y2:Y5)</f>
-        <v>-0.10329952861437716</v>
+        <v>-0.10545618452326581</v>
       </c>
     </row>
     <row r="21" spans="17:22" x14ac:dyDescent="0.3">
@@ -3317,8 +3334,9 @@
       <c r="V25" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="Q23:V25"/>
+    <mergeCell ref="AG8:AL8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Section Properties.xlsx
+++ b/src/Section Properties.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A974V276\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A3B8C9-5D73-46EB-8F19-C3312B698126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2292" windowWidth="30720" windowHeight="12828" xr2:uid="{F60304DA-B739-4F41-9D99-FD3530222EDB}"/>
+    <workbookView xWindow="0" yWindow="2295" windowWidth="30720" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
   <si>
     <t>Name of element</t>
   </si>
@@ -283,12 +282,18 @@
   </si>
   <si>
     <t xml:space="preserve">         Below values are assumed to be in the blue axis (auxillary axes) coord system below:</t>
+  </si>
+  <si>
+    <t>Iyyi*</t>
+  </si>
+  <si>
+    <t>Izzi*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -853,48 +858,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3812326-F393-4F18-B450-8E22F40B5680}">
-  <dimension ref="A1:AX25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.77734375" customWidth="1"/>
-    <col min="30" max="30" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,8 +1025,17 @@
       <c r="AX1" t="s">
         <v>79</v>
       </c>
+      <c r="AZ1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1190,8 +1203,20 @@
       <c r="AX2">
         <v>46</v>
       </c>
+      <c r="AZ2">
+        <f>(Q2)*(H2+X2)</f>
+        <v>3.6451821193081671E-2</v>
+      </c>
+      <c r="BA2">
+        <f>(Q2)*(I2+W2)</f>
+        <v>9.2581878574179658E-3</v>
+      </c>
+      <c r="BB2">
+        <f>(Q2)*(J2+Y2)</f>
+        <v>-3.6403463575096465E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1366,8 +1391,20 @@
       <c r="AX3" t="s">
         <v>80</v>
       </c>
+      <c r="AZ3">
+        <f t="shared" ref="AZ3:AZ15" si="17">(Q3)*(H3+X3)</f>
+        <v>4.0696275603782544E-3</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" ref="BA3:BA15" si="18">(Q3)*(I3+W3)</f>
+        <v>4.321921359133396E-2</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" ref="BB3:BB15" si="19">(Q3)*(J3+Y3)</f>
+        <v>-6.4458290713868688E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1535,8 +1572,20 @@
         <f>AX2-0.375</f>
         <v>45.625</v>
       </c>
+      <c r="AZ4">
+        <f t="shared" si="17"/>
+        <v>3.6918379207913826E-2</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" si="18"/>
+        <v>2.5515988798514161E-3</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" si="19"/>
+        <v>-5.2084748050304115E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1664,20 +1713,20 @@
         <v>-1.6560236305377594</v>
       </c>
       <c r="AJ5">
-        <f>H16+X16</f>
-        <v>1.0521938628573337</v>
+        <f>AZ16</f>
+        <v>9.7435788588486463E-2</v>
       </c>
       <c r="AK5">
-        <f>I16+W16</f>
-        <v>0.45054234094102513</v>
+        <f>BA16</f>
+        <v>5.5496404540087065E-2</v>
       </c>
       <c r="AL5">
-        <f>J16+Y16</f>
-        <v>-0.18123816068217702</v>
+        <f>BB16</f>
+        <v>-1.800132036616147E-2</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>0.44121061520806448</v>
+        <v>5.0832884052638642E-3</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1706,8 +1755,20 @@
       <c r="AW5" t="s">
         <v>62</v>
       </c>
+      <c r="AZ5">
+        <f t="shared" si="17"/>
+        <v>1.999596062711272E-2</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" si="18"/>
+        <v>4.6740421148372527E-4</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" si="19"/>
+        <v>-2.7066701322345445E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1855,8 +1916,20 @@
       <c r="AW6" t="s">
         <v>62</v>
       </c>
+      <c r="AZ6" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" si="18"/>
+        <v>3.7421710529905909E-3</v>
+      </c>
+      <c r="BB6" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1864,11 +1937,11 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C15" si="17">0.125*0.125</f>
+        <f t="shared" ref="C7:C15" si="20">0.125*0.125</f>
         <v>1.5625E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="18">(1/16)+(1/8)/2</f>
+        <f t="shared" ref="D7:D10" si="21">(1/16)+(1/8)/2</f>
         <v>0.125</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1883,11 +1956,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:I15" si="19">((1/8)^4)/12</f>
+        <f t="shared" ref="H7:I15" si="22">((1/8)^4)/12</f>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J7">
@@ -2004,8 +2077,20 @@
       <c r="AW7" t="s">
         <v>62</v>
       </c>
+      <c r="AZ7" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="18"/>
+        <v>3.7421710529905909E-3</v>
+      </c>
+      <c r="BB7" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2013,11 +2098,11 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.125</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2032,11 +2117,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J8">
@@ -2158,8 +2243,20 @@
       <c r="AW8" t="s">
         <v>62</v>
       </c>
+      <c r="AZ8" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="18"/>
+        <v>3.7421710529905909E-3</v>
+      </c>
+      <c r="BB8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2167,11 +2264,11 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.125</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2186,11 +2283,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J9">
@@ -2316,8 +2413,20 @@
       <c r="AW9" t="s">
         <v>62</v>
       </c>
+      <c r="AZ9" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="18"/>
+        <v>3.7421710529905909E-3</v>
+      </c>
+      <c r="BB9" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2325,11 +2434,11 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.125</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2344,11 +2453,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J10">
@@ -2476,8 +2585,20 @@
       <c r="AW10" t="s">
         <v>62</v>
       </c>
+      <c r="AZ10" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="18"/>
+        <v>3.7421710529905909E-3</v>
+      </c>
+      <c r="BB10" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2485,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2503,11 +2624,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J11">
@@ -2633,8 +2754,20 @@
       <c r="AW11" t="s">
         <v>62</v>
       </c>
+      <c r="AZ11" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA11" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB11" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2642,7 +2775,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2660,11 +2793,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J12">
@@ -2792,8 +2925,20 @@
       <c r="AW12" t="s">
         <v>62</v>
       </c>
+      <c r="AZ12" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA12" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB12" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2801,7 +2946,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2819,11 +2964,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J13">
@@ -2937,8 +3082,20 @@
       <c r="AW13" t="s">
         <v>62</v>
       </c>
+      <c r="AZ13" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA13" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB13" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2946,7 +3103,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2964,11 +3121,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J14">
@@ -3082,8 +3239,20 @@
       <c r="AW14" t="s">
         <v>62</v>
       </c>
+      <c r="AZ14" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA14" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB14" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3091,7 +3260,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3109,11 +3278,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="H15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="J15">
@@ -3227,8 +3396,20 @@
       <c r="AW15" t="s">
         <v>62</v>
       </c>
+      <c r="AZ15" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA15" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB15" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -3292,8 +3473,20 @@
         <f>SUM(Y2:Y5)</f>
         <v>-0.10545618452326581</v>
       </c>
+      <c r="AZ16" s="2">
+        <f>SUM(AZ2:AZ5)</f>
+        <v>9.7435788588486463E-2</v>
+      </c>
+      <c r="BA16" s="2">
+        <f t="shared" ref="BA16:BB16" si="23">SUM(BA2:BA5)</f>
+        <v>5.5496404540087065E-2</v>
+      </c>
+      <c r="BB16" s="2">
+        <f t="shared" si="23"/>
+        <v>-1.800132036616147E-2</v>
+      </c>
     </row>
-    <row r="21" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q21" s="1"/>
       <c r="R21" s="4" t="s">
         <v>54</v>
@@ -3301,13 +3494,13 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q22" s="2"/>
       <c r="R22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q23" s="6" t="s">
         <v>36</v>
       </c>
@@ -3317,7 +3510,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -3325,7 +3518,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>

--- a/src/Section Properties.xlsx
+++ b/src/Section Properties.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A974V276\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r393k932\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7123D75A-7F4C-4763-A2DF-C2A5F4D3338F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2295" windowWidth="30720" windowHeight="12825"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="85">
   <si>
     <t>Name of element</t>
   </si>
@@ -293,7 +285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -858,11 +850,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,19 +2601,20 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="e">
+      <c r="D11" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="E11" s="1">
+        <f>0.5*(1/8)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" t="e">
+        <v>2.5390625E-2</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>9.765625E-4</v>
       </c>
       <c r="H11">
         <f t="shared" si="22"/>
@@ -2634,25 +2627,25 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
+        <v>2.1635463548754617</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" t="e">
+        <v>1.6258340737441255</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N11" t="e">
+        <v>7.3139575463982767E-2</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O11" t="e">
+        <v>4.130213180230341E-2</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>5.4961990373147265E-2</v>
       </c>
       <c r="P11">
         <v>1130</v>
@@ -2665,33 +2658,33 @@
         <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
-      <c r="S11" t="e">
+      <c r="S11">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T11" t="e">
+        <v>1.4345703124999998E-2</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U11" t="e">
+        <v>5.5175781249999995E-4</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V11" t="e">
+        <v>2.1500691185961127</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W11" t="e">
+        <v>1.7185236305377594</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X11" t="e">
+        <v>7.2231206480322885E-2</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y11" t="e">
+        <v>4.6145679198698143E-2</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>5.773350918120175E-2</v>
       </c>
       <c r="Z11">
         <v>7.8</v>
@@ -2754,17 +2747,17 @@
       <c r="AW11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ11" t="e">
+      <c r="AZ11">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA11" t="e">
+        <v>2.6083803701691534E-2</v>
+      </c>
+      <c r="BA11">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB11" t="e">
+        <v>4.0822126615809508E-2</v>
+      </c>
+      <c r="BB11">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
+        <v>3.2619432687378984E-2</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">

--- a/src/Section Properties.xlsx
+++ b/src/Section Properties.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r393k932\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A974V276\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7123D75A-7F4C-4763-A2DF-C2A5F4D3338F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A77A4-6148-41B1-BFBF-DD54E024F490}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,7 +854,7 @@
   <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,23 +1067,23 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
-        <v>0.56979635487546165</v>
+        <v>0.52427118018903573</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
-        <v>-0.31166592625587453</v>
+        <v>-0.34587660080488614</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>7.6094035788131953E-2</v>
+        <v>6.4420375869563534E-2</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>2.2766167872405988E-2</v>
+        <v>2.8038427261955289E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-4.1621744231128535E-2</v>
+        <v>-4.2499953211816321E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
@@ -1106,23 +1106,23 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
-        <v>0.55631911859611249</v>
+        <v>0.34307972631149136</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
-        <v>-0.21897636946224064</v>
+        <v>-0.38941597600005751</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>7.253694415208331E-2</v>
+        <v>2.7586804360773706E-2</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>1.1238433683483684E-2</v>
+        <v>3.5541750554080632E-2</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-2.8551736137330561E-2</v>
+        <v>-3.1312670265802034E-2</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="AT2">
         <f>-AI3</f>
-        <v>1.5633340737441255</v>
+        <v>1.5291233991951139</v>
       </c>
       <c r="AU2" t="s">
         <v>62</v>
@@ -1197,15 +1197,15 @@
       </c>
       <c r="AZ2">
         <f>(Q2)*(H2+X2)</f>
-        <v>3.6451821193081671E-2</v>
+        <v>3.9550494094082782E-2</v>
       </c>
       <c r="BA2">
         <f>(Q2)*(I2+W2)</f>
-        <v>9.2581878574179658E-3</v>
+        <v>3.5270450340259911E-3</v>
       </c>
       <c r="BB2">
         <f>(Q2)*(J2+Y2)</f>
-        <v>-3.6403463575096465E-3</v>
+        <v>-3.992365458889759E-3</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
@@ -1249,23 +1249,23 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.46145364512453835</v>
+        <v>-0.50697881981096427</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-0.31166592625587453</v>
+        <v>-0.34587660080488614</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
-        <v>5.1651710612609501E-2</v>
+        <v>6.2345940316234964E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
-        <v>2.3561731147707529E-2</v>
+        <v>2.9018229534864898E-2</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
-        <v>3.4885580384644552E-2</v>
+        <v>4.2534325040647983E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1288,23 +1288,23 @@
       </c>
       <c r="U3">
         <f t="shared" si="3"/>
-        <v>-0.47493088140388751</v>
+        <v>-0.68817027368850869</v>
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
-        <v>-0.21897636946224064</v>
+        <v>-0.38941597600005751</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
-        <v>5.4712853614152887E-2</v>
+        <v>0.11487363529372573</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
-        <v>1.163116052098225E-2</v>
+        <v>3.6783756307496286E-2</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
-        <v>2.5226454030386754E-2</v>
+        <v>6.5003721484239732E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1330,27 +1330,27 @@
       </c>
       <c r="AH3">
         <f>F16/C16</f>
-        <v>-0.53854635487546165</v>
+        <v>-0.49302118018903573</v>
       </c>
       <c r="AI3">
         <f>G16/C16</f>
-        <v>-1.5633340737441255</v>
+        <v>-1.5291233991951139</v>
       </c>
       <c r="AJ3">
         <f>H16+N16</f>
-        <v>1.0459484620523829</v>
+        <v>1.0864018626510268</v>
       </c>
       <c r="AK3">
         <f>I16+M16</f>
-        <v>0.45041030249982084</v>
+        <v>0.52203122573857619</v>
       </c>
       <c r="AL3">
         <f>J16+O16</f>
-        <v>-0.18033006763243944</v>
+        <v>-0.12652458320020382</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.43858702989991594</v>
+        <v>0.55112722585040252</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="AT3">
         <f>-1.875-AI3</f>
-        <v>-0.31166592625587453</v>
+        <v>-0.34587660080488614</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>
@@ -1385,15 +1385,15 @@
       </c>
       <c r="AZ3">
         <f t="shared" ref="AZ3:AZ15" si="17">(Q3)*(H3+X3)</f>
-        <v>4.0696275603782544E-3</v>
+        <v>7.2765835231587937E-3</v>
       </c>
       <c r="BA3">
         <f t="shared" ref="BA3:BA15" si="18">(Q3)*(I3+W3)</f>
-        <v>4.321921359133396E-2</v>
+        <v>5.0889713255479502E-2</v>
       </c>
       <c r="BB3">
         <f t="shared" ref="BB3:BB15" si="19">(Q3)*(J3+Y3)</f>
-        <v>-6.4458290713868688E-3</v>
+        <v>-1.3742274710206144E-3</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
@@ -1436,23 +1436,23 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-0.21145364512453835</v>
+        <v>-0.25697881981096427</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.5008340737441255</v>
+        <v>1.4666233991951139</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>8.3836207568351619E-3</v>
+        <v>1.2382146343394258E-2</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>0.42234429692088504</v>
+        <v>0.40330953657499313</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-5.9504406678807284E-2</v>
+        <v>-7.0667090668557198E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1475,23 +1475,23 @@
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>-0.22493088140388751</v>
+        <v>-0.43817027368850864</v>
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>1.5935236305377594</v>
+        <v>1.4230840239999425</v>
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
-        <v>9.4863565142118203E-3</v>
+        <v>3.5998722889549237E-2</v>
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
-        <v>0.4761220427029203</v>
+        <v>0.37971902613072539</v>
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>-6.7206126516521442E-2</v>
+        <v>-0.11691620930208731</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1566,15 +1566,15 @@
       </c>
       <c r="AZ4">
         <f t="shared" si="17"/>
-        <v>3.6918379207913826E-2</v>
+        <v>2.9447145423568716E-2</v>
       </c>
       <c r="BA4">
         <f t="shared" si="18"/>
-        <v>2.5515988798514161E-3</v>
+        <v>4.6063072739400655E-3</v>
       </c>
       <c r="BB4">
         <f t="shared" si="19"/>
-        <v>-5.2084748050304115E-3</v>
+        <v>-9.0610062209117662E-3</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
@@ -1617,23 +1617,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.28854635487546165</v>
+        <v>0.24302118018903573</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.1241659262558743</v>
+        <v>-2.1583766008048864</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>5.2036874319947406E-3</v>
+        <v>3.691205876279486E-3</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>0.2820050551416548</v>
+        <v>0.29116184693137848</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-3.8307520948236952E-2</v>
+        <v>-3.2783201801250168E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1656,23 +1656,23 @@
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>0.27506911859611249</v>
+        <v>6.1829726311491362E-2</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>-2.0314763694622409</v>
+        <v>-2.2019159760000573</v>
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
-        <v>4.7289387503276379E-3</v>
+        <v>2.3893219098462045E-4</v>
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
-        <v>0.25793101498021792</v>
+        <v>0.30302712283526778</v>
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>-3.4924775899800573E-2</v>
+        <v>-8.5089913848114956E-3</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1698,27 +1698,27 @@
       </c>
       <c r="AH5">
         <f>S16/R16</f>
-        <v>-0.52506911859611249</v>
+        <v>-0.31182972631149136</v>
       </c>
       <c r="AI5">
         <f>T16/R16</f>
-        <v>-1.6560236305377594</v>
+        <v>-1.4855840239999425</v>
       </c>
       <c r="AJ5">
         <f>AZ16</f>
-        <v>9.7435788588486463E-2</v>
+        <v>0.12093379482690673</v>
       </c>
       <c r="AK5">
         <f>BA16</f>
-        <v>5.5496404540087065E-2</v>
+        <v>9.2271017418334988E-2</v>
       </c>
       <c r="AL5">
         <f>BB16</f>
-        <v>-1.800132036616147E-2</v>
+        <v>1.1382984695428649E-2</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>5.0832884052638642E-3</v>
+        <v>1.1029111948362497E-2</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1749,15 +1749,15 @@
       </c>
       <c r="AZ5">
         <f t="shared" si="17"/>
-        <v>1.999596062711272E-2</v>
+        <v>2.3490908985879085E-2</v>
       </c>
       <c r="BA5">
         <f t="shared" si="18"/>
-        <v>4.6740421148372527E-4</v>
+        <v>1.1942870313464142E-4</v>
       </c>
       <c r="BB5">
         <f t="shared" si="19"/>
-        <v>-2.7066701322345445E-3</v>
+        <v>-6.5944683232289089E-4</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.61802118018903573</v>
       </c>
       <c r="L6" t="e">
         <f t="shared" si="1"/>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>5.9679715494101336E-3</v>
       </c>
       <c r="N6" t="e">
         <f t="shared" si="8"/>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.43682972631149136</v>
       </c>
       <c r="V6" t="e">
         <f t="shared" si="4"/>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>2.9815657779589445E-3</v>
       </c>
       <c r="X6" t="e">
         <f t="shared" si="14"/>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="BA6">
         <f t="shared" si="18"/>
-        <v>3.7421710529905909E-3</v>
+        <v>1.696079618973887E-3</v>
       </c>
       <c r="BB6" t="e">
         <f t="shared" si="19"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.61802118018903573</v>
       </c>
       <c r="L7" t="e">
         <f t="shared" si="1"/>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>5.9679715494101336E-3</v>
       </c>
       <c r="N7" t="e">
         <f t="shared" si="8"/>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.43682972631149136</v>
       </c>
       <c r="V7" t="e">
         <f t="shared" si="4"/>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>2.9815657779589445E-3</v>
       </c>
       <c r="X7" t="e">
         <f t="shared" si="14"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="BA7">
         <f t="shared" si="18"/>
-        <v>3.7421710529905909E-3</v>
+        <v>1.696079618973887E-3</v>
       </c>
       <c r="BB7" t="e">
         <f t="shared" si="19"/>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.61802118018903573</v>
       </c>
       <c r="L8" t="e">
         <f t="shared" si="1"/>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>5.9679715494101336E-3</v>
       </c>
       <c r="N8" t="e">
         <f t="shared" si="8"/>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.43682972631149136</v>
       </c>
       <c r="V8" t="e">
         <f t="shared" si="4"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>2.9815657779589445E-3</v>
       </c>
       <c r="X8" t="e">
         <f t="shared" si="14"/>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="BA8">
         <f t="shared" si="18"/>
-        <v>3.7421710529905909E-3</v>
+        <v>1.696079618973887E-3</v>
       </c>
       <c r="BB8" t="e">
         <f t="shared" si="19"/>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.61802118018903573</v>
       </c>
       <c r="L9" t="e">
         <f t="shared" si="1"/>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>5.9679715494101336E-3</v>
       </c>
       <c r="N9" t="e">
         <f t="shared" si="8"/>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.43682972631149136</v>
       </c>
       <c r="V9" t="e">
         <f t="shared" si="4"/>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>2.9815657779589445E-3</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="14"/>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="BA9">
         <f t="shared" si="18"/>
-        <v>3.7421710529905909E-3</v>
+        <v>1.696079618973887E-3</v>
       </c>
       <c r="BB9" t="e">
         <f t="shared" si="19"/>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.61802118018903573</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>5.9679715494101336E-3</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" si="8"/>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.43682972631149136</v>
       </c>
       <c r="V10" t="e">
         <f t="shared" si="4"/>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>2.9815657779589445E-3</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="14"/>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="BA10">
         <f t="shared" si="18"/>
-        <v>3.7421710529905909E-3</v>
+        <v>1.696079618973887E-3</v>
       </c>
       <c r="BB10" t="e">
         <f t="shared" si="19"/>
@@ -2601,10 +2601,10 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>1.625</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <f>0.5*(1/8)</f>
         <v>6.25E-2</v>
       </c>
@@ -2629,23 +2629,23 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>2.1635463548754617</v>
+        <v>2.1180211801890358</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.6258340737441255</v>
+        <v>1.5916233991951139</v>
       </c>
       <c r="M11">
-        <f t="shared" si="7"/>
-        <v>7.3139575463982767E-2</v>
+        <f>C11*K11^2</f>
+        <v>7.0093964370771186E-2</v>
       </c>
       <c r="N11">
         <f t="shared" si="8"/>
-        <v>4.130213180230341E-2</v>
+        <v>3.9582266326022013E-2</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>5.4961990373147265E-2</v>
+        <v>5.2673313599683122E-2</v>
       </c>
       <c r="P11">
         <v>1130</v>
@@ -2668,23 +2668,23 @@
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
-        <v>2.1500691185961127</v>
+        <v>1.9368297263114913</v>
       </c>
       <c r="V11">
         <f t="shared" si="4"/>
-        <v>1.7185236305377594</v>
+        <v>1.5480840239999425</v>
       </c>
       <c r="W11">
         <f t="shared" si="13"/>
-        <v>7.2231206480322885E-2</v>
+        <v>5.8614209198810101E-2</v>
       </c>
       <c r="X11">
         <f t="shared" si="14"/>
-        <v>4.6145679198698143E-2</v>
+        <v>3.7446314771310225E-2</v>
       </c>
       <c r="Y11">
         <f t="shared" si="15"/>
-        <v>5.773350918120175E-2</v>
+        <v>4.6849611820484388E-2</v>
       </c>
       <c r="Z11">
         <v>7.8</v>
@@ -2749,15 +2749,15 @@
       </c>
       <c r="AZ11">
         <f t="shared" si="17"/>
-        <v>2.6083803701691534E-2</v>
+        <v>2.1168662800217359E-2</v>
       </c>
       <c r="BA11">
         <f t="shared" si="18"/>
-        <v>4.0822126615809508E-2</v>
+        <v>3.3128523151754789E-2</v>
       </c>
       <c r="BB11">
         <f t="shared" si="19"/>
-        <v>3.2619432687378984E-2</v>
+        <v>2.6470030678573678E-2</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
@@ -3407,76 +3407,76 @@
         <v>32</v>
       </c>
       <c r="C16" s="2">
-        <f>SUM(C2:C5)</f>
-        <v>0.72694022962906291</v>
+        <f>SUM(C2:C5,C11)</f>
+        <v>0.74256522962906291</v>
       </c>
       <c r="F16" s="2">
-        <f>SUM(F2:F5)</f>
-        <v>-0.39149101087906291</v>
+        <f>SUM(F2:F5,F11)</f>
+        <v>-0.36610038587906291</v>
       </c>
       <c r="G16" s="2">
-        <f>SUM(G2:G5)</f>
-        <v>-1.1364504305544929</v>
+        <f>SUM(G2:G5,G11)</f>
+        <v>-1.1354738680544929</v>
       </c>
       <c r="H16" s="2">
-        <f>SUM(H2:H5)</f>
-        <v>0.29527121096972953</v>
+        <f>SUM(H2:H5,H11)</f>
+        <v>0.29529155602181284</v>
       </c>
       <c r="I16" s="2">
-        <f>SUM(I2:I5)</f>
-        <v>0.30907724791024949</v>
+        <f>SUM(I2:I5,I11)</f>
+        <v>0.3090975929623328</v>
       </c>
       <c r="J16" s="2">
-        <f>SUM(J2:J5)</f>
+        <f>SUM(J2:J5,J11)</f>
         <v>-7.5781976158911218E-2</v>
       </c>
       <c r="M16" s="2">
-        <f>SUM(M2:M5)</f>
-        <v>0.14133305458957135</v>
+        <f>SUM(M2:M5,M11)</f>
+        <v>0.21293363277624344</v>
       </c>
       <c r="N16" s="2">
-        <f>SUM(N2:N5)</f>
-        <v>0.75067725108265337</v>
+        <f>SUM(N2:N5,N11)</f>
+        <v>0.79111030662921389</v>
       </c>
       <c r="O16" s="2">
-        <f>SUM(O2:O5)</f>
-        <v>-0.10454809147352823</v>
+        <f>SUM(O2:O5,O11)</f>
+        <v>-5.0742607041292589E-2</v>
       </c>
       <c r="R16" s="2">
-        <f>SUM(R2:R5)</f>
-        <v>8.0184879277705512E-2</v>
+        <f>SUM(R2:R5,R11)</f>
+        <v>8.9013004277705504E-2</v>
       </c>
       <c r="S16" s="2">
-        <f>SUM(S2:S5)</f>
-        <v>-4.2102603887080516E-2</v>
+        <f t="shared" ref="S16:T16" si="23">SUM(S2:S5,S11)</f>
+        <v>-2.7756900762080518E-2</v>
       </c>
       <c r="T16" s="2">
-        <f>SUM(T2:T5)</f>
-        <v>-0.13278805489569784</v>
+        <f t="shared" si="23"/>
+        <v>-0.13223629708319784</v>
       </c>
       <c r="W16" s="2">
-        <f>SUM(W2:W5)</f>
-        <v>0.14146509303077565</v>
+        <f>SUM(W2:W5,W11)</f>
+        <v>0.23731230393384337</v>
       </c>
       <c r="X16" s="2">
-        <f>SUM(X2:X5)</f>
-        <v>0.75692265188760421</v>
+        <f t="shared" ref="X16:Y16" si="24">SUM(X2:X5,X11)</f>
+        <v>0.79251797059888029</v>
       </c>
       <c r="Y16" s="2">
-        <f>SUM(Y2:Y5)</f>
-        <v>-0.10545618452326581</v>
+        <f t="shared" si="24"/>
+        <v>-4.4884537647976716E-2</v>
       </c>
       <c r="AZ16" s="2">
-        <f>SUM(AZ2:AZ5)</f>
-        <v>9.7435788588486463E-2</v>
+        <f>SUM(AZ2:AZ5,AZ11)</f>
+        <v>0.12093379482690673</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" ref="BA16:BB16" si="23">SUM(BA2:BA5)</f>
-        <v>5.5496404540087065E-2</v>
+        <f t="shared" ref="BA16:BB16" si="25">SUM(BA2:BA5,BA11)</f>
+        <v>9.2271017418334988E-2</v>
       </c>
       <c r="BB16" s="2">
-        <f t="shared" si="23"/>
-        <v>-1.800132036616147E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.1382984695428649E-2</v>
       </c>
     </row>
     <row r="21" spans="17:22" x14ac:dyDescent="0.25">

--- a/src/Section Properties.xlsx
+++ b/src/Section Properties.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A974V276\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A77A4-6148-41B1-BFBF-DD54E024F490}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E04536E-FC5A-4737-B799-601E9AC3371A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="85">
   <si>
     <t>Name of element</t>
   </si>
@@ -854,7 +863,7 @@
   <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,23 +1076,23 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
-        <v>0.52427118018903573</v>
+        <v>0.38366396427160332</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
-        <v>-0.34587660080488614</v>
+        <v>-0.44038324492704728</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>6.4420375869563534E-2</v>
+        <v>3.4499540034516121E-2</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>2.8038427261955289E-2</v>
+        <v>4.5454078690423991E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-4.2499953211816321E-2</v>
+        <v>-3.9599808175196108E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
@@ -1106,23 +1115,23 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
-        <v>0.34307972631149136</v>
+        <v>-0.15837596813785104</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
-        <v>-0.38941597600005751</v>
+        <v>-0.74440271318429851</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>2.7586804360773706E-2</v>
+        <v>5.878815769594127E-3</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>3.5541750554080632E-2</v>
+        <v>0.12987548423347148</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-3.1312670265802034E-2</v>
+        <v>2.7631757902735858E-2</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1181,7 +1190,7 @@
       </c>
       <c r="AT2">
         <f>-AI3</f>
-        <v>1.5291233991951139</v>
+        <v>1.4346167550729527</v>
       </c>
       <c r="AU2" t="s">
         <v>62</v>
@@ -1197,15 +1206,15 @@
       </c>
       <c r="AZ2">
         <f>(Q2)*(H2+X2)</f>
-        <v>3.9550494094082782E-2</v>
+        <v>5.1578045138205117E-2</v>
       </c>
       <c r="BA2">
         <f>(Q2)*(I2+W2)</f>
-        <v>3.5270450340259911E-3</v>
+        <v>7.5927648865059495E-4</v>
       </c>
       <c r="BB2">
         <f>(Q2)*(J2+Y2)</f>
-        <v>-3.992365458889759E-3</v>
+        <v>3.523049132598822E-3</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
@@ -1249,23 +1258,23 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.50697881981096427</v>
+        <v>-0.64758603572839668</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-0.34587660080488614</v>
+        <v>-0.44038324492704728</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
-        <v>6.2345940316234964E-2</v>
+        <v>0.1017240160628714</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
-        <v>2.9018229534864898E-2</v>
+        <v>4.7042470549846144E-2</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
-        <v>4.2534325040647983E-2</v>
+        <v>6.9176217227091163E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1288,23 +1297,23 @@
       </c>
       <c r="U3">
         <f t="shared" si="3"/>
-        <v>-0.68817027368850869</v>
+        <v>-1.1896259681378512</v>
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
-        <v>-0.38941597600005751</v>
+        <v>-0.74440271318429851</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
-        <v>0.11487363529372573</v>
+        <v>0.34328072505616813</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
-        <v>3.6783756307496286E-2</v>
+        <v>0.13441398040011837</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
-        <v>6.5003721484239732E-2</v>
+        <v>0.21480625840379561</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1330,27 +1339,27 @@
       </c>
       <c r="AH3">
         <f>F16/C16</f>
-        <v>-0.49302118018903573</v>
+        <v>-0.35241396427160332</v>
       </c>
       <c r="AI3">
         <f>G16/C16</f>
-        <v>-1.5291233991951139</v>
+        <v>-1.4346167550729527</v>
       </c>
       <c r="AJ3">
         <f>H16+N16</f>
-        <v>1.0864018626510268</v>
+        <v>1.198158806808894</v>
       </c>
       <c r="AK3">
         <f>I16+M16</f>
-        <v>0.52203122573857619</v>
+        <v>0.76982570360313773</v>
       </c>
       <c r="AL3">
         <f>J16+O16</f>
-        <v>-0.12652458320020382</v>
+        <v>3.965686298238838E-2</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.55112722585040252</v>
+        <v>0.92080077969834884</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -1369,7 +1378,7 @@
       </c>
       <c r="AT3">
         <f>-1.875-AI3</f>
-        <v>-0.34587660080488614</v>
+        <v>-0.44038324492704728</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>
@@ -1385,15 +1394,15 @@
       </c>
       <c r="AZ3">
         <f t="shared" ref="AZ3:AZ15" si="17">(Q3)*(H3+X3)</f>
-        <v>7.2765835231587937E-3</v>
+        <v>1.9724437094968111E-2</v>
       </c>
       <c r="BA3">
         <f t="shared" ref="BA3:BA15" si="18">(Q3)*(I3+W3)</f>
-        <v>5.0889713255479502E-2</v>
+        <v>8.0011617200190899E-2</v>
       </c>
       <c r="BB3">
         <f t="shared" ref="BB3:BB15" si="19">(Q3)*(J3+Y3)</f>
-        <v>-1.3742274710206144E-3</v>
+        <v>1.772559598622276E-2</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
@@ -1436,23 +1445,23 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-0.25697881981096427</v>
+        <v>-0.39758603572839668</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.4666233991951139</v>
+        <v>1.3721167550729527</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>1.2382146343394258E-2</v>
+        <v>2.9638997963666612E-2</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>0.40330953657499313</v>
+        <v>0.35300707304098677</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-7.0667090668557198E-2</v>
+        <v>-0.10228771147611876</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1475,23 +1484,23 @@
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>-0.43817027368850864</v>
+        <v>-0.93962596813785104</v>
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>1.4230840239999425</v>
+        <v>1.0680972868157015</v>
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
-        <v>3.5998722889549237E-2</v>
+        <v>0.16554317999981136</v>
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
-        <v>0.37971902613072539</v>
+        <v>0.21390596514432431</v>
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>-0.11691620930208731</v>
+        <v>-0.18817724009805289</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1566,15 +1575,15 @@
       </c>
       <c r="AZ4">
         <f t="shared" si="17"/>
-        <v>2.9447145423568716E-2</v>
+        <v>1.6596633197122634E-2</v>
       </c>
       <c r="BA4">
         <f t="shared" si="18"/>
-        <v>4.6063072739400655E-3</v>
+        <v>1.464600269998538E-2</v>
       </c>
       <c r="BB4">
         <f t="shared" si="19"/>
-        <v>-9.0610062209117662E-3</v>
+        <v>-1.45837361075991E-2</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
@@ -1617,23 +1626,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.24302118018903573</v>
+        <v>0.10241396427160332</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.1583766008048864</v>
+        <v>-2.2528832449270473</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>3.691205876279486E-3</v>
+        <v>6.555387548640776E-4</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>0.29116184693137848</v>
+        <v>0.31721768220456387</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-3.2783201801250168E-2</v>
+        <v>-1.4420419009628272E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1656,23 +1665,23 @@
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>6.1829726311491362E-2</v>
+        <v>-0.43962596813785104</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>-2.2019159760000573</v>
+        <v>-2.5569027131842983</v>
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
-        <v>2.3893219098462045E-4</v>
+        <v>1.2079436991321427E-2</v>
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
-        <v>0.30302712283526778</v>
+        <v>0.40860946779307661</v>
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>-8.5089913848114956E-3</v>
+        <v>7.0255051919871581E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1698,27 +1707,27 @@
       </c>
       <c r="AH5">
         <f>S16/R16</f>
-        <v>-0.31182972631149136</v>
+        <v>0.18962596813785104</v>
       </c>
       <c r="AI5">
         <f>T16/R16</f>
-        <v>-1.4855840239999425</v>
+        <v>-1.1305972868157015</v>
       </c>
       <c r="AJ5">
         <f>AZ16</f>
-        <v>0.12093379482690673</v>
+        <v>0.16988531357629777</v>
       </c>
       <c r="AK5">
         <f>BA16</f>
-        <v>9.2271017418334988E-2</v>
+        <v>0.19019288315108762</v>
       </c>
       <c r="AL5">
         <f>BB16</f>
-        <v>1.1382984695428649E-2</v>
+        <v>8.0483383747886855E-2</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>1.1029111948362497E-2</v>
+        <v>2.5833402534593063E-2</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1749,15 +1758,15 @@
       </c>
       <c r="AZ5">
         <f t="shared" si="17"/>
-        <v>2.3490908985879085E-2</v>
+        <v>3.1673540720109271E-2</v>
       </c>
       <c r="BA5">
         <f t="shared" si="18"/>
-        <v>1.1942870313464142E-4</v>
+        <v>1.037067825160744E-3</v>
       </c>
       <c r="BB5">
         <f t="shared" si="19"/>
-        <v>-6.5944683232289089E-4</v>
+        <v>5.4447665237900471E-3</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
@@ -1799,7 +1808,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.61802118018903573</v>
+        <v>0.47741396427160332</v>
       </c>
       <c r="L6" t="e">
         <f t="shared" si="1"/>
@@ -1807,7 +1816,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>5.9679715494101336E-3</v>
+        <v>3.5613139575238709E-3</v>
       </c>
       <c r="N6" t="e">
         <f t="shared" si="8"/>
@@ -1838,7 +1847,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.43682972631149136</v>
+        <v>-6.4625968137851042E-2</v>
       </c>
       <c r="V6" t="e">
         <f t="shared" si="4"/>
@@ -1846,7 +1855,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>2.9815657779589445E-3</v>
+        <v>6.5258058714914662E-5</v>
       </c>
       <c r="X6" t="e">
         <f t="shared" si="14"/>
@@ -1914,7 +1923,7 @@
       </c>
       <c r="BA6">
         <f t="shared" si="18"/>
-        <v>1.696079618973887E-3</v>
+        <v>4.8365757601010113E-5</v>
       </c>
       <c r="BB6" t="e">
         <f t="shared" si="19"/>
@@ -1960,7 +1969,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.61802118018903573</v>
+        <v>0.47741396427160332</v>
       </c>
       <c r="L7" t="e">
         <f t="shared" si="1"/>
@@ -1968,7 +1977,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>5.9679715494101336E-3</v>
+        <v>3.5613139575238709E-3</v>
       </c>
       <c r="N7" t="e">
         <f t="shared" si="8"/>
@@ -1999,7 +2008,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>0.43682972631149136</v>
+        <v>-6.4625968137851042E-2</v>
       </c>
       <c r="V7" t="e">
         <f t="shared" si="4"/>
@@ -2007,7 +2016,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>2.9815657779589445E-3</v>
+        <v>6.5258058714914662E-5</v>
       </c>
       <c r="X7" t="e">
         <f t="shared" si="14"/>
@@ -2075,7 +2084,7 @@
       </c>
       <c r="BA7">
         <f t="shared" si="18"/>
-        <v>1.696079618973887E-3</v>
+        <v>4.8365757601010113E-5</v>
       </c>
       <c r="BB7" t="e">
         <f t="shared" si="19"/>
@@ -2121,7 +2130,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.61802118018903573</v>
+        <v>0.47741396427160332</v>
       </c>
       <c r="L8" t="e">
         <f t="shared" si="1"/>
@@ -2129,7 +2138,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>5.9679715494101336E-3</v>
+        <v>3.5613139575238709E-3</v>
       </c>
       <c r="N8" t="e">
         <f t="shared" si="8"/>
@@ -2160,7 +2169,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.43682972631149136</v>
+        <v>-6.4625968137851042E-2</v>
       </c>
       <c r="V8" t="e">
         <f t="shared" si="4"/>
@@ -2168,7 +2177,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>2.9815657779589445E-3</v>
+        <v>6.5258058714914662E-5</v>
       </c>
       <c r="X8" t="e">
         <f t="shared" si="14"/>
@@ -2241,7 +2250,7 @@
       </c>
       <c r="BA8">
         <f t="shared" si="18"/>
-        <v>1.696079618973887E-3</v>
+        <v>4.8365757601010113E-5</v>
       </c>
       <c r="BB8" t="e">
         <f t="shared" si="19"/>
@@ -2287,7 +2296,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.61802118018903573</v>
+        <v>0.47741396427160332</v>
       </c>
       <c r="L9" t="e">
         <f t="shared" si="1"/>
@@ -2295,7 +2304,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>5.9679715494101336E-3</v>
+        <v>3.5613139575238709E-3</v>
       </c>
       <c r="N9" t="e">
         <f t="shared" si="8"/>
@@ -2326,7 +2335,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.43682972631149136</v>
+        <v>-6.4625968137851042E-2</v>
       </c>
       <c r="V9" t="e">
         <f t="shared" si="4"/>
@@ -2334,7 +2343,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>2.9815657779589445E-3</v>
+        <v>6.5258058714914662E-5</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="14"/>
@@ -2411,7 +2420,7 @@
       </c>
       <c r="BA9">
         <f t="shared" si="18"/>
-        <v>1.696079618973887E-3</v>
+        <v>4.8365757601010113E-5</v>
       </c>
       <c r="BB9" t="e">
         <f t="shared" si="19"/>
@@ -2457,7 +2466,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.61802118018903573</v>
+        <v>0.47741396427160332</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
@@ -2465,7 +2474,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>5.9679715494101336E-3</v>
+        <v>3.5613139575238709E-3</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" si="8"/>
@@ -2496,7 +2505,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.43682972631149136</v>
+        <v>-6.4625968137851042E-2</v>
       </c>
       <c r="V10" t="e">
         <f t="shared" si="4"/>
@@ -2504,7 +2513,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>2.9815657779589445E-3</v>
+        <v>6.5258058714914662E-5</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="14"/>
@@ -2583,7 +2592,7 @@
       </c>
       <c r="BA10">
         <f t="shared" si="18"/>
-        <v>1.696079618973887E-3</v>
+        <v>4.8365757601010113E-5</v>
       </c>
       <c r="BB10" t="e">
         <f t="shared" si="19"/>
@@ -2629,23 +2638,23 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>2.1180211801890358</v>
+        <v>1.9774139642716033</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.5916233991951139</v>
+        <v>1.4971167550729527</v>
       </c>
       <c r="M11">
         <f>C11*K11^2</f>
-        <v>7.0093964370771186E-2</v>
+        <v>6.1096343532755275E-2</v>
       </c>
       <c r="N11">
         <f t="shared" si="8"/>
-        <v>3.9582266326022013E-2</v>
+        <v>3.5021227786252621E-2</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>5.2673313599683122E-2</v>
+        <v>4.6256555900410098E-2</v>
       </c>
       <c r="P11">
         <v>1130</v>
@@ -2668,23 +2677,23 @@
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
-        <v>1.9368297263114913</v>
+        <v>1.4353740318621488</v>
       </c>
       <c r="V11">
         <f t="shared" si="4"/>
-        <v>1.5480840239999425</v>
+        <v>1.1930972868157015</v>
       </c>
       <c r="W11">
         <f t="shared" si="13"/>
-        <v>5.8614209198810101E-2</v>
+        <v>3.2192165802253141E-2</v>
       </c>
       <c r="X11">
         <f t="shared" si="14"/>
-        <v>3.7446314771310225E-2</v>
+        <v>2.2241892746984192E-2</v>
       </c>
       <c r="Y11">
         <f t="shared" si="15"/>
-        <v>4.6849611820484388E-2</v>
+        <v>2.6758450984069437E-2</v>
       </c>
       <c r="Z11">
         <v>7.8</v>
@@ -2749,15 +2758,15 @@
       </c>
       <c r="AZ11">
         <f t="shared" si="17"/>
-        <v>2.1168662800217359E-2</v>
+        <v>1.2578164356473151E-2</v>
       </c>
       <c r="BA11">
         <f t="shared" si="18"/>
-        <v>3.3128523151754789E-2</v>
+        <v>1.8200068632700107E-2</v>
       </c>
       <c r="BB11">
         <f t="shared" si="19"/>
-        <v>2.6470030678573678E-2</v>
+        <v>1.511852480599923E-2</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
@@ -2771,19 +2780,21 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="e">
+      <c r="D12" s="5">
+        <f>D11+1/8</f>
+        <v>1.75</v>
+      </c>
+      <c r="E12" s="5">
+        <f>0.5*(1/8)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12" t="e">
+        <v>2.734375E-2</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>9.765625E-4</v>
       </c>
       <c r="H12">
         <f t="shared" si="22"/>
@@ -2796,25 +2807,25 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="e">
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L12" t="e">
+        <v>2.1024139642716033</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M12" t="e">
+        <v>1.4971167550729527</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N12" t="e">
+        <v>6.9064757455691225E-2</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O12" t="e">
+        <v>3.5021227786252621E-2</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>4.9180612062661964E-2</v>
       </c>
       <c r="P12">
         <v>1130</v>
@@ -2827,33 +2838,33 @@
         <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
-      <c r="S12" t="e">
+      <c r="S12">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T12" t="e">
+        <v>1.5449218749999999E-2</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U12" t="e">
+        <v>5.5175781249999995E-4</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V12" t="e">
+        <v>1.5603740318621488</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W12" t="e">
+        <v>1.1930972868157015</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X12" t="e">
+        <v>3.8043236239214663E-2</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y12" t="e">
+        <v>2.2241892746984192E-2</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>2.9088719122381354E-2</v>
       </c>
       <c r="Z12">
         <v>7.8</v>
@@ -2918,17 +2929,17 @@
       <c r="AW12" t="s">
         <v>62</v>
       </c>
-      <c r="AZ12" t="e">
+      <c r="AZ12">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA12" t="e">
+        <v>1.2578164356473151E-2</v>
+      </c>
+      <c r="BA12">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB12" t="e">
+        <v>2.1505923429583369E-2</v>
+      </c>
+      <c r="BB12">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
+        <v>1.6435126304145464E-2</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
@@ -2942,19 +2953,21 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="e">
+      <c r="D13" s="5">
+        <f>D12+1/8</f>
+        <v>1.875</v>
+      </c>
+      <c r="E13" s="5">
+        <f>0.5*(1/8)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" t="e">
+        <v>2.9296875E-2</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>9.765625E-4</v>
       </c>
       <c r="H13">
         <f t="shared" si="22"/>
@@ -2967,25 +2980,25 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="e">
+      <c r="K13">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L13" t="e">
+        <v>2.2274139642716033</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M13" t="e">
+        <v>1.4971167550729527</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N13" t="e">
+        <v>7.7521452628627183E-2</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O13" t="e">
+        <v>3.5021227786252621E-2</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>5.2104668224913823E-2</v>
       </c>
       <c r="P13">
         <v>1130</v>
@@ -2998,33 +3011,33 @@
         <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
-      <c r="S13" t="e">
+      <c r="S13">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T13" t="e">
+        <v>1.6552734374999999E-2</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U13" t="e">
+        <v>5.5175781249999995E-4</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V13" t="e">
+        <v>1.6853740318621488</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W13" t="e">
+        <v>1.1930972868157015</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X13" t="e">
+        <v>4.4382587926176179E-2</v>
+      </c>
+      <c r="X13">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y13" t="e">
+        <v>2.2241892746984192E-2</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>3.1418987260693275E-2</v>
       </c>
       <c r="Z13">
         <v>7.8</v>
@@ -3075,17 +3088,17 @@
       <c r="AW13" t="s">
         <v>62</v>
       </c>
-      <c r="AZ13" t="e">
+      <c r="AZ13">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA13" t="e">
+        <v>1.2578164356473151E-2</v>
+      </c>
+      <c r="BA13">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB13" t="e">
+        <v>2.5087657132716622E-2</v>
+      </c>
+      <c r="BB13">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
+        <v>1.77517278022917E-2</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
@@ -3099,19 +3112,21 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="e">
+      <c r="D14" s="5">
+        <f>D13+1/8</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <f>0.5*(1/8)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" t="e">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>9.765625E-4</v>
       </c>
       <c r="H14">
         <f t="shared" si="22"/>
@@ -3124,25 +3139,25 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" t="e">
+      <c r="K14">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L14" t="e">
+        <v>2.3524139642716033</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M14" t="e">
+        <v>1.4971167550729527</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N14" t="e">
+        <v>8.6466429051563126E-2</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O14" t="e">
+        <v>3.5021227786252621E-2</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>5.5028724387165683E-2</v>
       </c>
       <c r="P14">
         <v>1130</v>
@@ -3155,33 +3170,33 @@
         <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
-      <c r="S14" t="e">
+      <c r="S14">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T14" t="e">
+        <v>1.7656249999999998E-2</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U14" t="e">
+        <v>5.5175781249999995E-4</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V14" t="e">
+        <v>1.8103740318621488</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W14" t="e">
+        <v>1.1930972868157015</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X14" t="e">
+        <v>5.1210220863137701E-2</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y14" t="e">
+        <v>2.2241892746984192E-2</v>
+      </c>
+      <c r="Y14">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>3.3749255399005189E-2</v>
       </c>
       <c r="Z14">
         <v>7.8</v>
@@ -3232,17 +3247,17 @@
       <c r="AW14" t="s">
         <v>62</v>
       </c>
-      <c r="AZ14" t="e">
+      <c r="AZ14">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA14" t="e">
+        <v>1.2578164356473151E-2</v>
+      </c>
+      <c r="BA14">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB14" t="e">
+        <v>2.8945269742099884E-2</v>
+      </c>
+      <c r="BB14">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
+        <v>1.906832930043793E-2</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
@@ -3407,76 +3422,76 @@
         <v>32</v>
       </c>
       <c r="C16" s="2">
-        <f>SUM(C2:C5,C11)</f>
-        <v>0.74256522962906291</v>
+        <f>SUM(C2:C5,C11:C14)</f>
+        <v>0.78944022962906291</v>
       </c>
       <c r="F16" s="2">
-        <f>SUM(F2:F5,F11)</f>
-        <v>-0.36610038587906291</v>
+        <f>SUM(F2:F5,F11:F14)</f>
+        <v>-0.27820976087906291</v>
       </c>
       <c r="G16" s="2">
-        <f>SUM(G2:G5,G11)</f>
-        <v>-1.1354738680544929</v>
+        <f t="shared" ref="G16:J16" si="23">SUM(G2:G5,G11:G14)</f>
+        <v>-1.1325441805544929</v>
       </c>
       <c r="H16" s="2">
-        <f>SUM(H2:H5,H11)</f>
-        <v>0.29529155602181284</v>
+        <f t="shared" si="23"/>
+        <v>0.29535259117806278</v>
       </c>
       <c r="I16" s="2">
-        <f>SUM(I2:I5,I11)</f>
-        <v>0.3090975929623328</v>
+        <f t="shared" si="23"/>
+        <v>0.30915862811858275</v>
       </c>
       <c r="J16" s="2">
-        <f>SUM(J2:J5,J11)</f>
+        <f t="shared" si="23"/>
         <v>-7.5781976158911218E-2</v>
       </c>
       <c r="M16" s="2">
-        <f>SUM(M2:M5,M11)</f>
-        <v>0.21293363277624344</v>
+        <f>SUM(M2:M5,M11:M14)</f>
+        <v>0.46066707548455499</v>
       </c>
       <c r="N16" s="2">
-        <f>SUM(N2:N5,N11)</f>
-        <v>0.79111030662921389</v>
+        <f t="shared" ref="N16:O16" si="24">SUM(N2:N5,N11:N14)</f>
+        <v>0.90280621563083119</v>
       </c>
       <c r="O16" s="2">
-        <f>SUM(O2:O5,O11)</f>
-        <v>-5.0742607041292589E-2</v>
+        <f t="shared" si="24"/>
+        <v>0.1154388391412996</v>
       </c>
       <c r="R16" s="2">
-        <f>SUM(R2:R5,R11)</f>
-        <v>8.9013004277705504E-2</v>
+        <f>SUM(R2:R5,R11:R14)</f>
+        <v>0.11549737927770548</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" ref="S16:T16" si="23">SUM(S2:S5,S11)</f>
-        <v>-2.7756900762080518E-2</v>
+        <f>SUM(S2:S5,S11:S14)</f>
+        <v>2.1901302362919477E-2</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="23"/>
-        <v>-0.13223629708319784</v>
+        <f>SUM(T2:T5,T11:T14)</f>
+        <v>-0.13058102364569785</v>
       </c>
       <c r="W16" s="2">
-        <f>SUM(W2:W5,W11)</f>
-        <v>0.23731230393384337</v>
+        <f>SUM(W2:W5,W11:W14)</f>
+        <v>0.69261036864767678</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" ref="X16:Y16" si="24">SUM(X2:X5,X11)</f>
-        <v>0.79251797059888029</v>
+        <f t="shared" ref="X16:Y16" si="25">SUM(X2:X5,X11:X14)</f>
+        <v>0.97577246855892752</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="24"/>
-        <v>-4.4884537647976716E-2</v>
+        <f t="shared" si="25"/>
+        <v>0.24553124089449943</v>
       </c>
       <c r="AZ16" s="2">
-        <f>SUM(AZ2:AZ5,AZ11)</f>
-        <v>0.12093379482690673</v>
+        <f>SUM(AZ2:AZ5,AZ11:AZ14)</f>
+        <v>0.16988531357629777</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" ref="BA16:BB16" si="25">SUM(BA2:BA5,BA11)</f>
-        <v>9.2271017418334988E-2</v>
+        <f t="shared" ref="BA16:BB16" si="26">SUM(BA2:BA5,BA11:BA14)</f>
+        <v>0.19019288315108762</v>
       </c>
       <c r="BB16" s="2">
-        <f t="shared" si="25"/>
-        <v>1.1382984695428649E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.0483383747886855E-2</v>
       </c>
     </row>
     <row r="21" spans="17:22" x14ac:dyDescent="0.25">
